--- a/AfDD_2023_Annex_Table_Tab19.xlsx
+++ b/AfDD_2023_Annex_Table_Tab19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab19.xlsx
+++ b/AfDD_2023_Annex_Table_Tab19.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B339AA1D-1BEE-41F6-BF78-AA5CB20CD551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9EA5B64-C718-4A97-8DE3-9DA23EADAAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab19'!$A$2:$J$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab19'!$A$1:$I$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab19'!$A$2:$J$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab19'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>Table 19: Trade by manufacturing intensity</t>
   </si>
@@ -322,7 +334,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -511,7 +523,7 @@
     <t>ROW, Fragile States</t>
   </si>
   <si>
-    <t>Extremely Fragile States</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
@@ -524,9 +536,6 @@
   </si>
   <si>
     <t>Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency.</t>
-  </si>
-  <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated April 21, 2022).</t>
@@ -550,7 +559,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
@@ -860,23 +869,22 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -909,10 +917,7 @@
     <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -921,7 +926,7 @@
     <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,7 +938,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -942,7 +947,7 @@
     <xf numFmtId="37" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,7 +956,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -963,7 +968,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -972,7 +977,7 @@
     <xf numFmtId="37" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -981,7 +986,7 @@
     <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -993,16 +998,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
@@ -1041,7 +1042,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1053,7 +1054,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1100,6 +1101,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1135,6 +1153,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1286,23 +1321,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D6112C-9756-48A9-ABAA-D3690E23352F}">
+  <sheetPr codeName="Sheet10">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.26953125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.26953125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1316,3190 +1350,3163 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>19275.515809</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>390.39939600000002</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>1350.488439</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>21016.403644000002</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>345.02898599999997</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>4320.3546749999996</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>2677.497468</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>7342.8811290000003</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>3465.958533</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>1016.890413</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>92.214207999999999</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>4575.0631540000004</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>1893.8968809999999</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>2485.8174730000001</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>1746.4179509999999</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>6126.1323049999901</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>79.594103000000104</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>1542.3468989999999</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>312.86502200000001</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>1934.806024</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>186.751453</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>928.69644300000004</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>514.77211599999998</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>1630.220012</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>387.15373499999998</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>154.45112399999999</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>423.55007000000001</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>965.15492900000004</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>100.739394</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>938.15531499999997</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>461.18939</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>1500.0840989999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>731.34260500000005</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>181.96980199999999</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>31.923736000000002</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>945.23614299999997</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>259.30237</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>1447.175982</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>828.17042200000003</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>2534.6487739999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>2299.070526</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>2333.3955340000002</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>695.13399900000002</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>5327.6000590000003</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <v>1721.268382</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>6633.6364240000003</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <v>2577.4005360000001</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>10932.305342</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>1200.4368910000001</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>4703.0477460000002</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>310.91714200000001</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>6214.4017789999998</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <v>808.09308999999996</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <v>4056.7648279999999</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <v>1752.8092320000001</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>6617.6671500000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>27435.975818999999</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>54809.456952</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>20055.084825999998</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>102300.517597</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <v>8073.8474420000002</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>37305.472498000003</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <v>25856.203227000002</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>71235.523167000007</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>741.65893100000005</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>9885.6742630000008</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>324.79934200000002</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>10952.132535999999</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>492.99676199999999</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>3456.345382</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>1833.7370679999999</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>5783.0792119999996</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>1214.519031</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>2801.3762109999998</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>326.14409799999999</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>4342.0393400000003</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>464.93840299999999</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
         <v>2905.927428</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>1734.833384</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>5105.6992149999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>56831.225982999997</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>77819.00834</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>23923.120881999999</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>158573.355205</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="25">
         <v>14346.863163</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="25">
         <v>64478.346447999997</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="25">
         <v>39983.030793999998</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <v>118808.240405</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>81.170609999999996</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>126.613348</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>10.597661</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>218.381619</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="18">
         <v>64.101162000000002</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <v>561.69447500000001</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <v>286.008105</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>911.80374200000006</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>2456.588933</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>952.68589599999996</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>290.34248400000001</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>3699.6173130000002</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="18">
         <v>1302.509472</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <v>3044.4565040000002</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <v>2386.2634509999998</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="19">
         <v>6733.2294270000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>69.380066999999997</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>55.413077999999999</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>2.8059430000000001</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>127.59908799999999</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="18">
         <v>13.437360999999999</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="18">
         <v>153.24754799999999</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="18">
         <v>124.49952399999999</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="19">
         <v>291.18443300000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>1290.262195</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>220.37930600000001</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>1.7575320000000001</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>1512.3990329999999</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>30.898774</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>441.72828600000003</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>539.13747699999999</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>1011.764537</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>4055.854546</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>2890.8817309999999</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>847.64956299999994</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>7794.3858399999999</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>235.04656700000001</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>1456.3562810000001</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>1078.169476</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>2769.5723240000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>1468.6187890000001</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>17438.251027999999</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>78.658951999999999</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>18985.528769</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>708.44608400000004</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>5598.5235679999996</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <v>2471.9921260000001</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <v>8778.9617780000008</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>2006.9213010000001</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>115.48016800000001</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>530.78367100000003</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>2653.18514</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>285.13646699999998</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>566.48206800000003</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>350.33506399999999</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>1201.9535989999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>3638.3663809999998</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>681.28901900000005</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>33.984059000000002</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>4353.639459</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>71.839884999999995</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>1165.1663980000001</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>972.09451000000104</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>2209.1007930000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <v>4.0861780000000003</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <v>17.999922000000002</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <v>1.7689699999999999</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>23.855070000000001</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="18">
         <v>5.9560709999999997</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="18">
         <v>65.825519999999997</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="18">
         <v>37.630412999999997</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="19">
         <v>109.412004</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="25">
         <v>15071.249</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>22498.993495999999</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>1798.348835</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="26">
         <v>39368.591331000003</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="25">
         <v>2717.3718429999999</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="25">
         <v>13053.480648000001</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="25">
         <v>8246.1301459999995</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="26">
         <v>24016.982637000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="18">
         <v>29.196867000000001</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="18">
         <v>9.7396670000000007</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="18">
         <v>15.119479999999999</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <v>54.056013999999998</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="18">
         <v>11.184137</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="18">
         <v>230.977779</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="18">
         <v>103.414496</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="19">
         <v>345.576412</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="18">
         <v>50.164791999999998</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="18">
         <v>100.342921</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <v>8.8272870000000001</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <v>159.33500000000001</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="18">
         <v>251.92772299999999</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="18">
         <v>3334.9568859999999</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="18">
         <v>1784.8927940000001</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="19">
         <v>5371.777403</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="18">
         <v>326.34698400000002</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="18">
         <v>267.66245500000002</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="18">
         <v>2.9983529999999998</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>597.00779199999999</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="18">
         <v>25.204152000000001</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="18">
         <v>207.33981700000001</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="18">
         <v>128.61150799999999</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="19">
         <v>361.15547700000002</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>1996.9783279999999</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="18">
         <v>827.70846700000004</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>669.63043900000105</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>3494.3172340000001</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <v>596.39235499999995</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="18">
         <v>6493.2977620000001</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="18">
         <v>3934.7349789999998</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="19">
         <v>11024.425096000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <v>2711.9170880000001</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="18">
         <v>2097.7981159999999</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="18">
         <v>1712.0940310000001</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
         <v>6521.8092349999997</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="18">
         <v>1199.7483380000001</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="18">
         <v>10989.977914999999</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="18">
         <v>6153.5879839999998</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="19">
         <v>18343.314236999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>1136.3919310000001</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="18">
         <v>691.33108900000002</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="18">
         <v>619.98128199999996</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <v>2447.7043020000001</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>123.633315</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="18">
         <v>2399.642198</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="18">
         <v>960.72458300000096</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="19">
         <v>3484.0000960000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>158.708563</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="18">
         <v>1178.0286759999999</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <v>709.90427099999999</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="19">
         <v>2046.6415099999999</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="18">
         <v>357.93169499999999</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="18">
         <v>2597.4905739999999</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="18">
         <v>1492.7959430000001</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="19">
         <v>4448.2182119999998</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>210.162148</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>675.25333499999999</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <v>18.361566</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="19">
         <v>903.77704900000003</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="18">
         <v>56.365231000000001</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <v>689.56425400000001</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="18">
         <v>609.97220600000003</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="19">
         <v>1355.901691</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <v>16.721546</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <v>635.24929999999995</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="18">
         <v>515.23607600000003</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="19">
         <v>1167.2069220000001</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="18">
         <v>36.291671000000001</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="18">
         <v>693.86955499999999</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="18">
         <v>829.92537200000004</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="19">
         <v>1560.0865980000001</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>140.90521100000001</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="18">
         <v>128.90682000000001</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="18">
         <v>6.3537860000000004</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="19">
         <v>276.165817</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="18">
         <v>412.53968099999997</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="18">
         <v>2010.1397199999999</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="18">
         <v>1773.149973</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="19">
         <v>4195.8293739999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>733.17847800000004</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>116.347634</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>0.75673599999999996</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <v>850.28284799999994</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <v>102.545607</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <v>588.76258700000005</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <v>405.60001699999998</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="16">
         <v>1096.9082109999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>1933.0926059999999</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="18">
         <v>2092.969795</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <v>7.9442110000000001</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="19">
         <v>4034.0066120000001</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="18">
         <v>868.11763900000005</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>3999.450026</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="18">
         <v>3710.6645149999999</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="19">
         <v>8578.2321800000009</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>2175.2068039999999</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="18">
         <v>3551.5395199999998</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>179.091116</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="19">
         <v>5905.8374400000102</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="18">
         <v>499.44465200000002</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="18">
         <v>7366.3818670000001</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="18">
         <v>4270.906817</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="19">
         <v>12136.733335999999</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>1190.7273909999999</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="18">
         <v>4435.3426140000001</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="18">
         <v>253.48289700000001</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="19">
         <v>5879.5529020000004</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="18">
         <v>424.98716100000001</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="18">
         <v>5253.6301999999996</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="18">
         <v>2284.9524710000001</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="19">
         <v>7963.5698320000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="25">
         <v>12809.698737000001</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="25">
         <v>16808.220409000001</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="25">
         <v>4719.7815309999996</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="26">
         <v>34337.700677000001</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="25">
         <v>4966.313357</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="25">
         <v>46855.481140000004</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="25">
         <v>28443.933658000002</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="26">
         <v>80265.728155000004</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>9810.4233700000004</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>5253.5719660000004</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>3755.4175070000001</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>18819.412842999998</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>4442.4897600000004</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <v>16894.143087</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <v>9989.8591020000003</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>31326.491948999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>6864.4154159999998</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="18">
         <v>20441.421531</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="18">
         <v>6272.4799510000003</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="19">
         <v>33578.316897999997</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="18">
         <v>17059.761766</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="18">
         <v>36139.273503999997</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="18">
         <v>22638.711757000001</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="19">
         <v>75837.747027000107</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>6330.2964540000003</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>1917.372562</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <v>154.618281</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="13">
         <v>8402.2872970000008</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>1061.246451</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <v>6039.1824120000001</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="12">
         <v>4702.1062160000001</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>11802.535078999999</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>1788.8508790000001</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>1878.615693</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>19.112134999999999</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>3686.5787070000001</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>411.26283699999999</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>1930.613699</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>1073.9797129999999</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>3415.8562489999999</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="18">
         <v>5804.7365259999997</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="18">
         <v>17023.173149999999</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="18">
         <v>9396.0560939999905</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="19">
         <v>32223.965769999999</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="18">
         <v>5571.9780979999996</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="18">
         <v>25280.604866999998</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="18">
         <v>12301.074342</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="19">
         <v>43153.657306999899</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="18">
         <v>1002.073716</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="18">
         <v>6648.3747000000003</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="18">
         <v>6046.4570560000002</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="19">
         <v>13696.905472</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="18">
         <v>1787.282872</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="18">
         <v>10351.143811</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="18">
         <v>4317.6795510000002</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44" s="19">
         <v>16456.106233999999</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="25">
         <v>31600.796361000001</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="25">
         <v>53162.529602000002</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="25">
         <v>25644.141024</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="26">
         <v>110407.46698700001</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="25">
         <v>30334.021784</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="25">
         <v>96634.961379999993</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="25">
         <v>55023.410681000001</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="26">
         <v>181992.39384500001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="18">
         <v>696.97695999999996</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="18">
         <v>445.11260399999998</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <v>51.445537999999999</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="19">
         <v>1193.5351020000001</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="18">
         <v>102.881193</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="18">
         <v>2780.4846419999999</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="18">
         <v>1344.9745620000001</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="19">
         <v>4228.3403969999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="18">
         <v>786.65974000000006</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="18">
         <v>7319.4696670000003</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="18">
         <v>45.617659000000003</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="19">
         <v>8151.7470659999999</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="18">
         <v>118.285123</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="18">
         <v>2262.7405090000002</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="18">
         <v>1442.804871</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="19">
         <v>3823.8305030000001</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="12">
         <v>5.968604</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="12">
         <v>70.546074000000004</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="12">
         <v>14.015256000000001</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="13">
         <v>90.529933999999997</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="12">
         <v>55.840741000000001</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="12">
         <v>739.65860399999997</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="12">
         <v>329.893956</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J48" s="13">
         <v>1125.3933010000001</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="18">
         <v>6701.2574180000001</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="18">
         <v>3539.4005259999999</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="18">
         <v>302.52539200000001</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="19">
         <v>10543.183336</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="18">
         <v>1496.4087999999999</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="18">
         <v>5377.2093400000003</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="18">
         <v>3162.1450420000001</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="19">
         <v>10035.763182000001</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="18">
         <v>58.012839</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="18">
         <v>283.32981999999998</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <v>16.092773000000001</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="19">
         <v>357.43543199999999</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="18">
         <v>84.445370999999994</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="18">
         <v>1174.3970879999999</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="18">
         <v>430.36222299999997</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50" s="19">
         <v>1689.204682</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <v>5130.6917789999998</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="15">
         <v>7759.4717659999997</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="15">
         <v>265.94287500000002</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="16">
         <v>13156.10642</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <v>840.20876799999996</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="15">
         <v>9181.9452419999998</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="15">
         <v>6048.9586799999997</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="16">
         <v>16071.11269</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="18">
         <v>3223.3230050000002</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="18">
         <v>8343.3942659999993</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <v>46.054808000000001</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="19">
         <v>11612.772079</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="18">
         <v>194.825377</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="18">
         <v>2457.697893</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="18">
         <v>2029.653352</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="19">
         <v>4682.176622</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="18">
         <v>128.17790400000001</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="18">
         <v>11.786377</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="18">
         <v>0.544234</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="19">
         <v>140.50851499999999</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="18">
         <v>10.014654999999999</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="18">
         <v>247.61761999999999</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="18">
         <v>68.462710000000001</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="19">
         <v>326.09498500000001</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <v>510.46328099999999</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="18">
         <v>261.49126200000001</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="18">
         <v>165.86211399999999</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="19">
         <v>937.81665699999996</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="18">
         <v>48.206080999999998</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="18">
         <v>2775.0888329999998</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="18">
         <v>6731.7850079999998</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="19">
         <v>9555.0799220000008</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <v>208.07313500000001</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="18">
         <v>4831.6112869999997</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="18">
         <v>16.187777000000001</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="19">
         <v>5055.8721990000004</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="18">
         <v>195.49814900000001</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="18">
         <v>2278.018204</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="18">
         <v>1390.5155139999999</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="19">
         <v>3864.0318670000001</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <v>355.61396500000001</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="18">
         <v>2214.7008729999998</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="18">
         <v>46.100628999999998</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="19">
         <v>2616.4154669999998</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="18">
         <v>206.06614400000001</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="18">
         <v>1477.5966969999999</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="18">
         <v>1073.8974900000001</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="19">
         <v>2757.5603310000001</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>33671.102237999999</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>1807.358641</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <v>6920.8050210000101</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="13">
         <v>42399.265899999999</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>3450.386716</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="12">
         <v>30005.241896</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>18480.376722000001</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="13">
         <v>51936.005334000001</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>887.68772000000001</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="18">
         <v>2782.3581049999998</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="18">
         <v>388.471476</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="19">
         <v>4058.5173009999999</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="18">
         <v>1255.3598890000001</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="18">
         <v>6428.1307890000098</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="18">
         <v>3247.7098380000002</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="19">
         <v>10931.200516000001</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>467.83916799999997</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <v>46.709488</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="18">
         <v>18.594398000000002</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="19">
         <v>533.14305400000001</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="18">
         <v>33.456885999999997</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="18">
         <v>713.16818000000001</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="18">
         <v>412.88298600000002</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J59" s="19">
         <v>1159.5080519999999</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>540.37836500000003</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="15">
         <v>769.11515199999997</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="15">
         <v>349.80512599999997</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>1659.2986430000001</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="15">
         <v>836.25074800000004</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="15">
         <v>6394.937997</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="15">
         <v>2707.3801760000001</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="16">
         <v>9938.5689209999891</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="25">
         <v>53372.226121</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="25">
         <v>40485.855907999998</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="25">
         <v>8648.0650760000008</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="26">
         <v>102506.147105</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="25">
         <v>8928.1346410000006</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="25">
         <v>74293.933533999996</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="25">
         <v>48901.80313</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="26">
         <v>132123.87130500001</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="31">
         <v>169685.19620199999</v>
       </c>
-      <c r="D62" s="33">
+      <c r="D62" s="31">
         <v>210774.607755</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="31">
         <v>64733.457348000004</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="32">
         <v>445193.26130499999</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="31">
         <v>61292.704788000003</v>
       </c>
-      <c r="H62" s="33">
+      <c r="H62" s="31">
         <v>295316.20315000002</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="31">
         <v>180598.30840899999</v>
       </c>
-      <c r="J62" s="34">
+      <c r="J62" s="32">
         <v>537207.21634699998</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="31">
         <v>1739502.30908</v>
       </c>
-      <c r="D63" s="33">
+      <c r="D63" s="31">
         <v>8100105.8435770096</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="31">
         <v>5964168.7675120002</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="32">
         <v>15803776.920169</v>
       </c>
-      <c r="G63" s="33">
+      <c r="G63" s="31">
         <v>1807914.238042</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H63" s="31">
         <v>7854328.5954980003</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="31">
         <v>5697662.5550640002</v>
       </c>
-      <c r="J63" s="34">
+      <c r="J63" s="32">
         <v>15359905.388604</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="35">
         <v>277063.49287199997</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="35">
         <v>419072.98489199998</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="35">
         <v>270206.21692199999</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="36">
         <v>966342.694686</v>
       </c>
-      <c r="G64" s="37">
+      <c r="G64" s="35">
         <v>62637.266597000002</v>
       </c>
-      <c r="H64" s="37">
+      <c r="H64" s="35">
         <v>542009.30327399995</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="35">
         <v>290870.18041500001</v>
       </c>
-      <c r="J64" s="38">
+      <c r="J64" s="36">
         <v>895516.75028599997</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="38">
         <v>237567.404351</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="38">
         <v>2035051.2094119999</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="38">
         <v>1978125.8098929999</v>
       </c>
-      <c r="F65" s="41">
+      <c r="F65" s="39">
         <v>4250744.4236559998</v>
       </c>
-      <c r="G65" s="40">
+      <c r="G65" s="38">
         <v>693575.98722000001</v>
       </c>
-      <c r="H65" s="40">
+      <c r="H65" s="38">
         <v>1748564.7521220001</v>
       </c>
-      <c r="I65" s="40">
+      <c r="I65" s="38">
         <v>737472.41204700002</v>
       </c>
-      <c r="J65" s="41">
+      <c r="J65" s="39">
         <v>3179613.151389</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="41">
         <v>1909187.5052819999</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="41">
         <v>8310880.4513320103</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="41">
         <v>6028902.2248600004</v>
       </c>
-      <c r="F66" s="44">
+      <c r="F66" s="42">
         <v>16248970.181474</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="41">
         <v>1869206.9428300001</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="41">
         <v>8149644.7986479998</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="41">
         <v>5878260.863473</v>
       </c>
-      <c r="J66" s="44">
+      <c r="J66" s="42">
         <v>15897112.604951</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="38">
         <v>28415.003110000001</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="38">
         <v>74123.733598999999</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="38">
         <v>18098.477778</v>
       </c>
-      <c r="F67" s="41">
+      <c r="F67" s="39">
         <v>120637.214487</v>
       </c>
-      <c r="G67" s="40">
+      <c r="G67" s="38">
         <v>26449.150420999998</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="38">
         <v>106328.29969099999</v>
       </c>
-      <c r="I67" s="40">
+      <c r="I67" s="38">
         <v>63095.437569000002</v>
       </c>
-      <c r="J67" s="41">
+      <c r="J67" s="39">
         <v>195872.88768099999</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="38">
         <v>78485.515948999993</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="38">
         <v>90938.19025</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="38">
         <v>30402.717815</v>
       </c>
-      <c r="F68" s="41">
+      <c r="F68" s="39">
         <v>199826.42401399999</v>
       </c>
-      <c r="G68" s="40">
+      <c r="G68" s="38">
         <v>36328.92931</v>
       </c>
-      <c r="H68" s="40">
+      <c r="H68" s="38">
         <v>160897.84445199999</v>
       </c>
-      <c r="I68" s="40">
+      <c r="I68" s="38">
         <v>95038.046031999998</v>
       </c>
-      <c r="J68" s="41">
+      <c r="J68" s="39">
         <v>292264.81979400001</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="38">
         <v>7102.3625190000002</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="38">
         <v>11002.894566999999</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="38">
         <v>2174.3840070000001</v>
       </c>
-      <c r="F69" s="41">
+      <c r="F69" s="39">
         <v>20279.641092999998</v>
       </c>
-      <c r="G69" s="40">
+      <c r="G69" s="38">
         <v>2347.1921510000002</v>
       </c>
-      <c r="H69" s="40">
+      <c r="H69" s="38">
         <v>25450.011298000001</v>
       </c>
-      <c r="I69" s="40">
+      <c r="I69" s="38">
         <v>14011.027599999999</v>
       </c>
-      <c r="J69" s="41">
+      <c r="J69" s="39">
         <v>41808.231049000002</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="38">
         <v>34556.926957000003</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="38">
         <v>23564.646227000001</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="38">
         <v>3167.19884</v>
       </c>
-      <c r="F70" s="41">
+      <c r="F70" s="39">
         <v>61288.772023999998</v>
       </c>
-      <c r="G70" s="40">
+      <c r="G70" s="38">
         <v>3118.7660599999999</v>
       </c>
-      <c r="H70" s="40">
+      <c r="H70" s="38">
         <v>18063.399577</v>
       </c>
-      <c r="I70" s="40">
+      <c r="I70" s="38">
         <v>11533.599819999999</v>
       </c>
-      <c r="J70" s="41">
+      <c r="J70" s="39">
         <v>32715.765457000001</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="38">
         <v>53372.226121</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="38">
         <v>40485.855907999998</v>
       </c>
-      <c r="E71" s="40">
+      <c r="E71" s="38">
         <v>8648.0650760000099</v>
       </c>
-      <c r="F71" s="41">
+      <c r="F71" s="39">
         <v>102506.147105</v>
       </c>
-      <c r="G71" s="40">
+      <c r="G71" s="38">
         <v>8928.1346410000097</v>
       </c>
-      <c r="H71" s="40">
+      <c r="H71" s="38">
         <v>74293.933533999996</v>
       </c>
-      <c r="I71" s="40">
+      <c r="I71" s="38">
         <v>48901.80313</v>
       </c>
-      <c r="J71" s="41">
+      <c r="J71" s="39">
         <v>132123.87130500001</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="38">
         <v>9083.3108780000093</v>
       </c>
-      <c r="D72" s="40">
+      <c r="D72" s="38">
         <v>10067.078821999999</v>
       </c>
-      <c r="E72" s="40">
+      <c r="E72" s="38">
         <v>2662.0877399999999</v>
       </c>
-      <c r="F72" s="41">
+      <c r="F72" s="39">
         <v>21812.477439999999</v>
       </c>
-      <c r="G72" s="40">
+      <c r="G72" s="38">
         <v>3881.4626560000002</v>
       </c>
-      <c r="H72" s="40">
+      <c r="H72" s="38">
         <v>32877.554913</v>
       </c>
-      <c r="I72" s="40">
+      <c r="I72" s="38">
         <v>20176.194241000001</v>
       </c>
-      <c r="J72" s="41">
+      <c r="J72" s="39">
         <v>56935.211810000001</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="38">
         <v>61816.070483000003</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="38">
         <v>101323.14762</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="38">
         <v>26041.112058999999</v>
       </c>
-      <c r="F73" s="41">
+      <c r="F73" s="39">
         <v>189180.330162</v>
       </c>
-      <c r="G73" s="40">
+      <c r="G73" s="38">
         <v>16083.794717000001</v>
       </c>
-      <c r="H73" s="40">
+      <c r="H73" s="38">
         <v>83365.231989000007</v>
       </c>
-      <c r="I73" s="40">
+      <c r="I73" s="38">
         <v>50112.790131000002</v>
       </c>
-      <c r="J73" s="41">
+      <c r="J73" s="39">
         <v>149561.81683699999</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="38">
         <v>24736.380945000001</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="38">
         <v>32721.108070999999</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="38">
         <v>19371.661072999999</v>
       </c>
-      <c r="F74" s="41">
+      <c r="F74" s="39">
         <v>76829.150089000002</v>
       </c>
-      <c r="G74" s="40">
+      <c r="G74" s="38">
         <v>13274.260018000001</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H74" s="38">
         <v>60495.687876000004</v>
       </c>
-      <c r="I74" s="40">
+      <c r="I74" s="38">
         <v>32384.698924</v>
       </c>
-      <c r="J74" s="41">
+      <c r="J74" s="39">
         <v>106154.64681799999</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="43">
+      <c r="C75" s="41">
         <v>23719.740322000001</v>
       </c>
-      <c r="D75" s="43">
+      <c r="D75" s="41">
         <v>2939.6074709999998</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="41">
         <v>2592.7345690000002</v>
       </c>
-      <c r="F75" s="44">
+      <c r="F75" s="42">
         <v>29252.082362000001</v>
       </c>
-      <c r="G75" s="43">
+      <c r="G75" s="41">
         <v>2423.2453019999998</v>
       </c>
-      <c r="H75" s="43">
+      <c r="H75" s="41">
         <v>12573.574911</v>
       </c>
-      <c r="I75" s="43">
+      <c r="I75" s="41">
         <v>6041.220147</v>
       </c>
-      <c r="J75" s="44">
+      <c r="J75" s="42">
         <v>21038.040359999999</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="38">
         <v>104121.550898</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="38">
         <v>822135.37432499998</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="38">
         <v>482174.90203900001</v>
       </c>
-      <c r="F76" s="41">
+      <c r="F76" s="39">
         <v>1408431.8272619999</v>
       </c>
-      <c r="G76" s="40">
+      <c r="G76" s="38">
         <v>128606.739103</v>
       </c>
-      <c r="H76" s="40">
+      <c r="H76" s="38">
         <v>820196.22185500001</v>
       </c>
-      <c r="I76" s="40">
+      <c r="I76" s="38">
         <v>319382.85772099998</v>
       </c>
-      <c r="J76" s="41">
+      <c r="J76" s="39">
         <v>1268185.818679</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="38">
         <v>215338.533807</v>
       </c>
-      <c r="D77" s="40">
+      <c r="D77" s="38">
         <v>213577.60780299999</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="38">
         <v>41119.434619</v>
       </c>
-      <c r="F77" s="41">
+      <c r="F77" s="39">
         <v>470035.576229</v>
       </c>
-      <c r="G77" s="40">
+      <c r="G77" s="38">
         <v>30416.617998999998</v>
       </c>
-      <c r="H77" s="40">
+      <c r="H77" s="38">
         <v>218010.437645</v>
       </c>
-      <c r="I77" s="40">
+      <c r="I77" s="38">
         <v>140005.58118400001</v>
       </c>
-      <c r="J77" s="41">
+      <c r="J77" s="39">
         <v>388432.63682800002</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="38">
         <v>258862.38183999999</v>
       </c>
-      <c r="D78" s="40">
+      <c r="D78" s="38">
         <v>2718873.7933299998</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="38">
         <v>2107207.6752510001</v>
       </c>
-      <c r="F78" s="41">
+      <c r="F78" s="39">
         <v>5084943.8504210003</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="38">
         <v>477956.47022399999</v>
       </c>
-      <c r="H78" s="40">
+      <c r="H78" s="38">
         <v>2461465.3645810001</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="38">
         <v>1953481.9876570001</v>
       </c>
-      <c r="J78" s="41">
+      <c r="J78" s="39">
         <v>4892903.822462</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="43">
+      <c r="C79" s="41">
         <v>893150.75755600003</v>
       </c>
-      <c r="D79" s="43">
+      <c r="D79" s="41">
         <v>5126360.284922</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="41">
         <v>3644187.7404939998</v>
       </c>
-      <c r="F79" s="44">
+      <c r="F79" s="42">
         <v>9663698.7829720005</v>
       </c>
-      <c r="G79" s="43">
+      <c r="G79" s="41">
         <v>966014.87138000003</v>
       </c>
-      <c r="H79" s="43">
+      <c r="H79" s="41">
         <v>5137447.8941909997</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="41">
         <v>4280757.3446420003</v>
       </c>
-      <c r="J79" s="44">
+      <c r="J79" s="42">
         <v>10384220.110213</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="40">
-        <v>81867.593173000001</v>
-      </c>
-      <c r="D80" s="40">
-        <v>15155.348481999999</v>
-      </c>
-      <c r="E80" s="40">
-        <v>13614.616207999999</v>
-      </c>
-      <c r="F80" s="41">
-        <v>110637.55786299999</v>
-      </c>
-      <c r="G80" s="40">
-        <v>10333.336443</v>
-      </c>
-      <c r="H80" s="40">
-        <v>62819.268801999999</v>
-      </c>
-      <c r="I80" s="40">
-        <v>39863.555747999999</v>
-      </c>
-      <c r="J80" s="41">
-        <v>113016.160993</v>
+      <c r="C80" s="38">
+        <v>81873.561776999995</v>
+      </c>
+      <c r="D80" s="38">
+        <v>15225.894555999999</v>
+      </c>
+      <c r="E80" s="38">
+        <v>13628.631464</v>
+      </c>
+      <c r="F80" s="39">
+        <v>110728.087797</v>
+      </c>
+      <c r="G80" s="38">
+        <v>10389.177184</v>
+      </c>
+      <c r="H80" s="38">
+        <v>63558.927406000003</v>
+      </c>
+      <c r="I80" s="38">
+        <v>40193.449703999999</v>
+      </c>
+      <c r="J80" s="39">
+        <v>114141.554294</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="40">
-        <v>464050.91519799997</v>
-      </c>
-      <c r="D81" s="40">
-        <v>432719.56516300002</v>
-      </c>
-      <c r="E81" s="40">
-        <v>142440.763087</v>
-      </c>
-      <c r="F81" s="41">
-        <v>1039211.2434480001</v>
-      </c>
-      <c r="G81" s="40">
-        <v>62239.400871999998</v>
-      </c>
-      <c r="H81" s="40">
-        <v>424996.81750100001</v>
-      </c>
-      <c r="I81" s="40">
-        <v>370715.134081</v>
-      </c>
-      <c r="J81" s="41">
-        <v>857951.35245400004</v>
+      <c r="C81" s="38">
+        <v>467070.62547000003</v>
+      </c>
+      <c r="D81" s="38">
+        <v>445183.97150500002</v>
+      </c>
+      <c r="E81" s="38">
+        <v>146346.656927</v>
+      </c>
+      <c r="F81" s="39">
+        <v>1058601.2539019999</v>
+      </c>
+      <c r="G81" s="38">
+        <v>63683.388980000003</v>
+      </c>
+      <c r="H81" s="38">
+        <v>432626.95058599999</v>
+      </c>
+      <c r="I81" s="38">
+        <v>377339.726471</v>
+      </c>
+      <c r="J81" s="39">
+        <v>873650.06603700004</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="40">
-        <v>87817.603029000005</v>
-      </c>
-      <c r="D82" s="40">
-        <v>195619.259273</v>
-      </c>
-      <c r="E82" s="40">
-        <v>51118.841139999997</v>
-      </c>
-      <c r="F82" s="41">
-        <v>334555.70344200003</v>
-      </c>
-      <c r="G82" s="40">
-        <v>50959.368345000003</v>
-      </c>
-      <c r="H82" s="40">
-        <v>232496.93434800001</v>
-      </c>
-      <c r="I82" s="40">
-        <v>140734.75266100001</v>
-      </c>
-      <c r="J82" s="41">
-        <v>424191.05535400001</v>
+      <c r="C82" s="38">
+        <v>87811.634424999997</v>
+      </c>
+      <c r="D82" s="38">
+        <v>195548.71319899999</v>
+      </c>
+      <c r="E82" s="38">
+        <v>51104.825883999998</v>
+      </c>
+      <c r="F82" s="39">
+        <v>334465.17350799998</v>
+      </c>
+      <c r="G82" s="38">
+        <v>50903.527604000003</v>
+      </c>
+      <c r="H82" s="38">
+        <v>231757.27574400001</v>
+      </c>
+      <c r="I82" s="38">
+        <v>140404.85870499999</v>
+      </c>
+      <c r="J82" s="39">
+        <v>423065.66205300001</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="43">
-        <v>1275451.3938819999</v>
-      </c>
-      <c r="D83" s="43">
-        <v>7667386.2784140101</v>
-      </c>
-      <c r="E83" s="43">
-        <v>5821728.0044250004</v>
-      </c>
-      <c r="F83" s="44">
-        <v>14764565.676720999</v>
-      </c>
-      <c r="G83" s="43">
-        <v>1745674.83717</v>
-      </c>
-      <c r="H83" s="43">
-        <v>7429331.7779970001</v>
-      </c>
-      <c r="I83" s="43">
-        <v>5326947.4209829997</v>
-      </c>
-      <c r="J83" s="44">
-        <v>14501954.036149999</v>
+      <c r="C83" s="41">
+        <v>1272431.6836099999</v>
+      </c>
+      <c r="D83" s="41">
+        <v>7654921.8720720103</v>
+      </c>
+      <c r="E83" s="41">
+        <v>5817822.1105850004</v>
+      </c>
+      <c r="F83" s="42">
+        <v>14745175.666267</v>
+      </c>
+      <c r="G83" s="41">
+        <v>1744230.8490619999</v>
+      </c>
+      <c r="H83" s="41">
+        <v>7421701.6449119998</v>
+      </c>
+      <c r="I83" s="41">
+        <v>5320322.8285929998</v>
+      </c>
+      <c r="J83" s="42">
+        <v>14486255.322566999</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="38">
         <v>19886.169270999999</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="38">
         <v>53673.152497000003</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="38">
         <v>3105.246611</v>
       </c>
-      <c r="F84" s="41">
+      <c r="F84" s="39">
         <v>76664.568379000004</v>
       </c>
-      <c r="G84" s="40">
+      <c r="G84" s="38">
         <v>7134.287808</v>
       </c>
-      <c r="H84" s="40">
+      <c r="H84" s="38">
         <v>56259.095867999997</v>
       </c>
-      <c r="I84" s="40">
+      <c r="I84" s="38">
         <v>36923.362772</v>
       </c>
-      <c r="J84" s="41">
+      <c r="J84" s="39">
         <v>100316.74644800001</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="40">
+      <c r="C85" s="38">
         <v>2656.4930669999999</v>
       </c>
-      <c r="D85" s="40">
+      <c r="D85" s="38">
         <v>1200.372241</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="38">
         <v>174.920875</v>
       </c>
-      <c r="F85" s="41">
+      <c r="F85" s="39">
         <v>4031.7861830000002</v>
       </c>
-      <c r="G85" s="40">
+      <c r="G85" s="38">
         <v>2547.68887</v>
       </c>
-      <c r="H85" s="40">
+      <c r="H85" s="38">
         <v>12878.592108000001</v>
       </c>
-      <c r="I85" s="40">
+      <c r="I85" s="38">
         <v>6959.3082109999996</v>
       </c>
-      <c r="J85" s="41">
+      <c r="J85" s="39">
         <v>22385.589188999998</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="40">
+      <c r="C86" s="38">
         <v>105545.641443</v>
       </c>
-      <c r="D86" s="40">
+      <c r="D86" s="38">
         <v>92044.640421999997</v>
       </c>
-      <c r="E86" s="40">
+      <c r="E86" s="38">
         <v>39225.468202999997</v>
       </c>
-      <c r="F86" s="41">
+      <c r="F86" s="39">
         <v>236815.75006799999</v>
       </c>
-      <c r="G86" s="40">
+      <c r="G86" s="38">
         <v>41570.133397999998</v>
       </c>
-      <c r="H86" s="40">
+      <c r="H86" s="38">
         <v>184146.86147599999</v>
       </c>
-      <c r="I86" s="40">
+      <c r="I86" s="38">
         <v>105972.258122</v>
       </c>
-      <c r="J86" s="41">
+      <c r="J86" s="39">
         <v>331689.252996</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="40">
+      <c r="C87" s="38">
         <v>143904.99797600001</v>
       </c>
-      <c r="D87" s="40">
+      <c r="D87" s="38">
         <v>545868.37324800005</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="38">
         <v>413334.26146200002</v>
       </c>
-      <c r="F87" s="41">
+      <c r="F87" s="39">
         <v>1103107.6326860001</v>
       </c>
-      <c r="G87" s="40">
+      <c r="G87" s="38">
         <v>202708.60662999999</v>
       </c>
-      <c r="H87" s="40">
+      <c r="H87" s="38">
         <v>714792.49291899998</v>
       </c>
-      <c r="I87" s="40">
+      <c r="I87" s="38">
         <v>313987.65856399998</v>
       </c>
-      <c r="J87" s="41">
+      <c r="J87" s="39">
         <v>1231488.7581130001</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C88" s="38">
         <v>44236.663941999999</v>
       </c>
-      <c r="D88" s="40">
+      <c r="D88" s="38">
         <v>64421.565536000002</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="38">
         <v>21887.506458</v>
       </c>
-      <c r="F88" s="41">
+      <c r="F88" s="39">
         <v>130545.735936</v>
       </c>
-      <c r="G88" s="40">
+      <c r="G88" s="38">
         <v>12551.991910999999</v>
       </c>
-      <c r="H88" s="40">
+      <c r="H88" s="38">
         <v>54216.376251000002</v>
       </c>
-      <c r="I88" s="40">
+      <c r="I88" s="38">
         <v>36872.762143</v>
       </c>
-      <c r="J88" s="41">
+      <c r="J88" s="39">
         <v>103641.130305</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="40">
+      <c r="C89" s="38">
         <v>557745.49614299997</v>
       </c>
-      <c r="D89" s="40">
+      <c r="D89" s="38">
         <v>2275728.271441</v>
       </c>
-      <c r="E89" s="40">
+      <c r="E89" s="38">
         <v>1999567.7818489999</v>
       </c>
-      <c r="F89" s="41">
+      <c r="F89" s="39">
         <v>4833041.5494330004</v>
       </c>
-      <c r="G89" s="40">
+      <c r="G89" s="38">
         <v>624657.40668100002</v>
       </c>
-      <c r="H89" s="40">
+      <c r="H89" s="38">
         <v>1928644.9094189999</v>
       </c>
-      <c r="I89" s="40">
+      <c r="I89" s="38">
         <v>969414.45789200102</v>
       </c>
-      <c r="J89" s="41">
+      <c r="J89" s="39">
         <v>3522716.7739920001</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="43">
+      <c r="C90" s="41">
         <v>1032074.388012</v>
       </c>
-      <c r="D90" s="43">
+      <c r="D90" s="41">
         <v>5276834.466093</v>
       </c>
-      <c r="E90" s="43">
+      <c r="E90" s="41">
         <v>3551578.8578989999</v>
       </c>
-      <c r="F90" s="44">
+      <c r="F90" s="42">
         <v>9860487.7120040003</v>
       </c>
-      <c r="G90" s="43">
-        <v>977420.89715000102</v>
-      </c>
-      <c r="H90" s="43">
+      <c r="G90" s="41">
+        <v>977420.89714999998</v>
+      </c>
+      <c r="H90" s="41">
         <v>5195154.3373370003</v>
       </c>
-      <c r="I90" s="43">
+      <c r="I90" s="41">
         <v>4406411.343262</v>
       </c>
-      <c r="J90" s="44">
+      <c r="J90" s="42">
         <v>10578986.577749001</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="40">
+      <c r="C91" s="38">
         <v>45922.667946000001</v>
       </c>
-      <c r="D91" s="40">
+      <c r="D91" s="38">
         <v>72889.385712000003</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="38">
         <v>5867.9204639999998</v>
       </c>
-      <c r="F91" s="41">
+      <c r="F91" s="39">
         <v>124679.974122</v>
       </c>
-      <c r="G91" s="40">
+      <c r="G91" s="38">
         <v>10611.069452</v>
       </c>
-      <c r="H91" s="40">
+      <c r="H91" s="38">
         <v>87111.322421999997</v>
       </c>
-      <c r="I91" s="40">
+      <c r="I91" s="38">
         <v>53759.295331000001</v>
       </c>
-      <c r="J91" s="41">
+      <c r="J91" s="39">
         <v>151481.68720499999</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C92" s="38">
         <v>14064.709521000001</v>
       </c>
-      <c r="D92" s="40">
+      <c r="D92" s="38">
         <v>18119.819757000001</v>
       </c>
-      <c r="E92" s="40">
+      <c r="E92" s="38">
         <v>69058.295165000003</v>
       </c>
-      <c r="F92" s="41">
+      <c r="F92" s="39">
         <v>101242.824443</v>
       </c>
-      <c r="G92" s="40">
+      <c r="G92" s="38">
         <v>14755.493386</v>
       </c>
-      <c r="H92" s="40">
+      <c r="H92" s="38">
         <v>87123.028596000004</v>
       </c>
-      <c r="I92" s="40">
+      <c r="I92" s="38">
         <v>35902.953629000003</v>
       </c>
-      <c r="J92" s="41">
+      <c r="J92" s="39">
         <v>137781.475611</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="40">
+      <c r="C93" s="38">
         <v>342.85966200000001</v>
       </c>
-      <c r="D93" s="40">
+      <c r="D93" s="38">
         <v>1923.3500160000001</v>
       </c>
-      <c r="E93" s="40">
+      <c r="E93" s="38">
         <v>1256.588287</v>
       </c>
-      <c r="F93" s="41">
+      <c r="F93" s="39">
         <v>3522.7979650000002</v>
       </c>
-      <c r="G93" s="40">
+      <c r="G93" s="38">
         <v>477.21897000000001</v>
       </c>
-      <c r="H93" s="40">
+      <c r="H93" s="38">
         <v>4575.439652</v>
       </c>
-      <c r="I93" s="40">
+      <c r="I93" s="38">
         <v>2862.1228900000001</v>
       </c>
-      <c r="J93" s="41">
+      <c r="J93" s="39">
         <v>7914.7815119999996</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="40">
+      <c r="C94" s="38">
         <v>12016.208911</v>
       </c>
-      <c r="D94" s="40">
+      <c r="D94" s="38">
         <v>231264.61344099999</v>
       </c>
-      <c r="E94" s="40">
+      <c r="E94" s="38">
         <v>86838.182155000002</v>
       </c>
-      <c r="F94" s="41">
+      <c r="F94" s="39">
         <v>330119.00450699998</v>
       </c>
-      <c r="G94" s="40">
+      <c r="G94" s="38">
         <v>29707.183761</v>
       </c>
-      <c r="H94" s="40">
+      <c r="H94" s="38">
         <v>239804.01530599999</v>
       </c>
-      <c r="I94" s="40">
+      <c r="I94" s="38">
         <v>111503.156538</v>
       </c>
-      <c r="J94" s="41">
+      <c r="J94" s="39">
         <v>381014.35560499999</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C95" s="40">
+      <c r="C95" s="38">
         <v>13542.432994999999</v>
       </c>
-      <c r="D95" s="40">
+      <c r="D95" s="38">
         <v>36405.548321000002</v>
       </c>
-      <c r="E95" s="40">
+      <c r="E95" s="38">
         <v>2576.7953149999998</v>
       </c>
-      <c r="F95" s="41">
+      <c r="F95" s="39">
         <v>52524.776631000001</v>
       </c>
-      <c r="G95" s="40">
+      <c r="G95" s="38">
         <v>5207.2023300000001</v>
       </c>
-      <c r="H95" s="40">
+      <c r="H95" s="38">
         <v>32362.398545</v>
       </c>
-      <c r="I95" s="40">
+      <c r="I95" s="38">
         <v>19211.242985000001</v>
       </c>
-      <c r="J95" s="41">
+      <c r="J95" s="39">
         <v>56780.843860000001</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C96" s="43">
+      <c r="C96" s="41">
         <v>71984.092199000006</v>
       </c>
-      <c r="D96" s="43">
+      <c r="D96" s="41">
         <v>51343.999651999999</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="41">
         <v>13341.211541000001</v>
       </c>
-      <c r="F96" s="44">
+      <c r="F96" s="42">
         <v>136669.303392</v>
       </c>
-      <c r="G96" s="43">
+      <c r="G96" s="41">
         <v>9869.9034429999992</v>
       </c>
-      <c r="H96" s="43">
+      <c r="H96" s="41">
         <v>76729.240651</v>
       </c>
-      <c r="I96" s="43">
+      <c r="I96" s="41">
         <v>62216.533201999999</v>
       </c>
-      <c r="J96" s="44">
+      <c r="J96" s="42">
         <v>148815.67729600001</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="38">
         <v>102620.463447</v>
       </c>
-      <c r="D97" s="40">
+      <c r="D97" s="38">
         <v>86451.392693999995</v>
       </c>
-      <c r="E97" s="40">
+      <c r="E97" s="38">
         <v>16773.776741000001</v>
       </c>
-      <c r="F97" s="41">
+      <c r="F97" s="39">
         <v>205845.63288200001</v>
       </c>
-      <c r="G97" s="40">
+      <c r="G97" s="38">
         <v>18613.377365</v>
       </c>
-      <c r="H97" s="40">
+      <c r="H97" s="38">
         <v>137013.67152199999</v>
       </c>
-      <c r="I97" s="40">
+      <c r="I97" s="38">
         <v>86253.427345000004</v>
       </c>
-      <c r="J97" s="41">
+      <c r="J97" s="39">
         <v>241880.47623199999</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="35" t="s">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="40">
+      <c r="C98" s="41">
         <v>79295.221674999993</v>
       </c>
-      <c r="D98" s="40">
+      <c r="D98" s="41">
         <v>62491.776190999997</v>
       </c>
-      <c r="E98" s="40">
+      <c r="E98" s="41">
         <v>94888.120422000007</v>
       </c>
-      <c r="F98" s="41">
+      <c r="F98" s="42">
         <v>236675.118288</v>
       </c>
-      <c r="G98" s="40">
+      <c r="G98" s="41">
         <v>35463.803304000001</v>
       </c>
-      <c r="H98" s="40">
+      <c r="H98" s="41">
         <v>174325.43359299999</v>
       </c>
-      <c r="I98" s="40">
+      <c r="I98" s="41">
         <v>92248.786626999994</v>
       </c>
-      <c r="J98" s="41">
+      <c r="J98" s="42">
         <v>302038.02352400002</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" s="42" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="43"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C99" s="43">
-        <v>57884.745626999997</v>
-      </c>
-      <c r="D99" s="43">
-        <v>37178.459784999999</v>
-      </c>
-      <c r="E99" s="43">
-        <v>2084.0601809999998</v>
-      </c>
-      <c r="F99" s="44">
-        <v>97147.265593000004</v>
-      </c>
-      <c r="G99" s="43">
-        <v>7054.4884670000001</v>
-      </c>
-      <c r="H99" s="43">
-        <v>51628.318320999999</v>
-      </c>
-      <c r="I99" s="43">
-        <v>41147.114959999999</v>
-      </c>
-      <c r="J99" s="44">
-        <v>99829.921747999993</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="45"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" s="48" t="s">
+      <c r="A105" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A106" s="48" t="s">
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="47" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="47"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -4507,32 +4514,27 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B110" r:id="rId1"/>
-    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B114" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4BA8BBFF-8C74-4292-BAD8-684CF791B310}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{64BDEFEC-3A9A-49B5-B842-C052E8433C8F}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{70F013CC-61E2-41FE-A815-A7321F33EAEF}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{650CA930-F303-4B03-AEE8-75EE4707BEB9}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{4F8CBFBA-5CAB-4E69-A69A-E0C3C3E251CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab19.xlsx
+++ b/AfDD_2023_Annex_Table_Tab19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF588FCA-70A0-4C03-A1E0-02FE7989FF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA544AE8-F604-4DD7-ABBB-26F3A5EB5A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{30EAA9C1-7AE5-4FDF-989F-1EC3ABCF3C02}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6587DBF-9D8A-4D90-A28E-5AB071B3E135}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated April 21, 2022).</t>
@@ -1460,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD77E59-09A4-4EF5-8F70-09897AF232B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CCAA47-A8C6-4404-AB02-DF160CEF9E3A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1605,7 +1605,7 @@
         <v>6.4906562402401802</v>
       </c>
       <c r="R3" s="13">
-        <v>44.792871152814399</v>
+        <v>45.025733623187897</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -1661,7 +1661,7 @@
         <v>51.093423167035098</v>
       </c>
       <c r="R4" s="19">
-        <v>44.636045188239301</v>
+        <v>41.891955685351803</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -1717,7 +1717,7 @@
         <v>74.028869201324696</v>
       </c>
       <c r="R5" s="25">
-        <v>45.040888825467299</v>
+        <v>45.040888826404696</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -1773,7 +1773,7 @@
         <v>81.546050726224294</v>
       </c>
       <c r="R6" s="25">
-        <v>45.8725166721403</v>
+        <v>44.345664757404002</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -1829,7 +1829,7 @@
         <v>48.284036913641998</v>
       </c>
       <c r="R7" s="25">
-        <v>9.5594264874568697</v>
+        <v>10.3727474306876</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -1885,7 +1885,7 @@
         <v>47.106201504009597</v>
       </c>
       <c r="R8" s="25">
-        <v>40.571534823397897</v>
+        <v>40.5940552908055</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -1941,7 +1941,7 @@
         <v>68.874149346267899</v>
       </c>
       <c r="R9" s="25">
-        <v>32.470831678476401</v>
+        <v>34.331492876482699</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -1997,7 +1997,7 @@
         <v>18.690403390080899</v>
       </c>
       <c r="R10" s="25">
-        <v>31.193814062223499</v>
+        <v>31.193814062404901</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -2053,7 +2053,7 @@
         <v>52.509074512616401</v>
       </c>
       <c r="R11" s="19">
-        <v>54.5010008519195</v>
+        <v>52.951540056276201</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2109,7 +2109,7 @@
         <v>64.668637975236805</v>
       </c>
       <c r="R12" s="25">
-        <v>20.003677188074501</v>
+        <v>18.279911392911501</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2165,7 +2165,7 @@
         <v>29.494632420122599</v>
       </c>
       <c r="R13" s="32">
-        <v>34.716158046341697</v>
+        <v>34.5944064075684</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -2221,7 +2221,7 @@
         <v>43.8743853751213</v>
       </c>
       <c r="R14" s="25">
-        <v>7.4606338004530102</v>
+        <v>8.1227926531516701</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -2277,7 +2277,7 @@
         <v>8.3869341080662707</v>
       </c>
       <c r="R15" s="25">
-        <v>18.162348699407499</v>
+        <v>16.4416262007732</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -2333,7 +2333,7 @@
         <v>14.6301275208651</v>
       </c>
       <c r="R16" s="25">
-        <v>13.231574903385599</v>
+        <v>13.688864979750299</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -2389,7 +2389,7 @@
         <v>12.8186545709417</v>
       </c>
       <c r="R17" s="38">
-        <v>34.401117134836497</v>
+        <v>34.529957898005001</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -2445,7 +2445,7 @@
         <v>13.5496259045507</v>
       </c>
       <c r="R18" s="38">
-        <v>66.2703757270056</v>
+        <v>72.891877155626503</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -2501,7 +2501,7 @@
         <v>42.896035098758198</v>
       </c>
       <c r="R19" s="19">
-        <v>39.527376992370897</v>
+        <v>39.553458604219401</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -2557,7 +2557,7 @@
         <v>3.2936189125051598</v>
       </c>
       <c r="R20" s="38">
-        <v>45.419403332502597</v>
+        <v>44.622731725259897</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -2613,7 +2613,7 @@
         <v>6.8068558956448602</v>
       </c>
       <c r="R21" s="38">
-        <v>39.862226428640398</v>
+        <v>39.862196110500797</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2669,7 +2669,7 @@
         <v>7.9231874065141303</v>
       </c>
       <c r="R22" s="25">
-        <v>15.694842956760199</v>
+        <v>15.309847129227901</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2725,7 +2725,7 @@
         <v>24.3461048726979</v>
       </c>
       <c r="R23" s="32">
-        <v>33.032170662026097</v>
+        <v>33.056170556374198</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -2781,7 +2781,7 @@
         <v>7.95970011165769</v>
       </c>
       <c r="R24" s="25">
-        <v>9.6433581382237907</v>
+        <v>11.516798569849399</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -2837,7 +2837,7 @@
         <v>10.9825897749086</v>
       </c>
       <c r="R25" s="25">
-        <v>149.939648856069</v>
+        <v>149.939648857761</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
@@ -2893,7 +2893,7 @@
         <v>7.0581962569624803</v>
       </c>
       <c r="R26" s="25">
-        <v>38.332803386038499</v>
+        <v>38.753396744285503</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
@@ -2949,7 +2949,7 @@
         <v>9.1723238404758405</v>
       </c>
       <c r="R27" s="25">
-        <v>8.5738254451512805</v>
+        <v>8.5738254450976097</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
@@ -3005,7 +3005,7 @@
         <v>11.412967841714501</v>
       </c>
       <c r="R28" s="25">
-        <v>10.6995717922083</v>
+        <v>10.7162886540966</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
@@ -3061,7 +3061,7 @@
         <v>13.598355093455501</v>
       </c>
       <c r="R29" s="25">
-        <v>23.4693926254748</v>
+        <v>23.032116454966602</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
@@ -3117,7 +3117,7 @@
         <v>17.563328877095699</v>
       </c>
       <c r="R30" s="25">
-        <v>28.635882545604002</v>
+        <v>27.8335084103309</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
@@ -3173,7 +3173,7 @@
         <v>41.649981720346702</v>
       </c>
       <c r="R31" s="25">
-        <v>19.065982944789599</v>
+        <v>19.064319772189801</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
@@ -3229,7 +3229,7 @@
         <v>35.845770196478497</v>
       </c>
       <c r="R32" s="25">
-        <v>120.178646778526</v>
+        <v>120.178646783612</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
@@ -3285,7 +3285,7 @@
         <v>3.9280656077167002</v>
       </c>
       <c r="R33" s="25">
-        <v>17.178050909806</v>
+        <v>17.178050909260499</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
@@ -3341,7 +3341,7 @@
         <v>30.1600578538619</v>
       </c>
       <c r="R34" s="19">
-        <v>81.035780749001901</v>
+        <v>71.500734394283</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -3397,7 +3397,7 @@
         <v>13.1059487587617</v>
       </c>
       <c r="R35" s="25">
-        <v>16.822679203181501</v>
+        <v>17.0172856140736</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
@@ -3453,7 +3453,7 @@
         <v>10.287241307379</v>
       </c>
       <c r="R36" s="25">
-        <v>13.3399197022664</v>
+        <v>14.1751950000597</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3509,7 +3509,7 @@
         <v>28.883543342501198</v>
       </c>
       <c r="R37" s="25">
-        <v>14.3024181952253</v>
+        <v>14.385308686659201</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3565,7 +3565,7 @@
         <v>13.6615185075398</v>
       </c>
       <c r="R38" s="32">
-        <v>14.830895694770399</v>
+        <v>14.6283437020997</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
@@ -3621,7 +3621,7 @@
         <v>2.5866675005912598</v>
       </c>
       <c r="R39" s="38">
-        <v>25.672662569768001</v>
+        <v>25.605455733878198</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
@@ -3677,7 +3677,7 @@
         <v>1.81523250502978</v>
       </c>
       <c r="R40" s="25">
-        <v>10.557030768187101</v>
+        <v>10.5531691004687</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
@@ -3789,7 +3789,7 @@
         <v>9.9102443718826301</v>
       </c>
       <c r="R42" s="38">
-        <v>33.206979135730698</v>
+        <v>33.2069791354443</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
@@ -3845,7 +3845,7 @@
         <v>4.21721288037521</v>
       </c>
       <c r="R43" s="25">
-        <v>32.985864624771601</v>
+        <v>32.985864623713397</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3901,7 +3901,7 @@
         <v>6.67496069019891</v>
       </c>
       <c r="R44" s="25">
-        <v>42.212917027849102</v>
+        <v>42.439990494046803</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3957,7 +3957,7 @@
         <v>3.64776148594511</v>
       </c>
       <c r="R45" s="32">
-        <v>18.816212082425501</v>
+        <v>18.783189127890399</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
@@ -4013,7 +4013,7 @@
         <v>18.517930683628599</v>
       </c>
       <c r="R46" s="25">
-        <v>23.970788358347001</v>
+        <v>23.482995586326499</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
@@ -4069,7 +4069,7 @@
         <v>32.739994050468297</v>
       </c>
       <c r="R47" s="25">
-        <v>31.302274108413499</v>
+        <v>29.4574859455408</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
@@ -4125,7 +4125,7 @@
         <v>0.64310391098442998</v>
       </c>
       <c r="R48" s="38">
-        <v>28.986910634530801</v>
+        <v>28.9751184139811</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
@@ -4181,7 +4181,7 @@
         <v>27.073032372817199</v>
       </c>
       <c r="R49" s="25">
-        <v>22.586551588184999</v>
+        <v>22.632864580266698</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
@@ -4237,7 +4237,7 @@
         <v>13.3943689943672</v>
       </c>
       <c r="R50" s="25">
-        <v>8.6612706258221301</v>
+        <v>9.1788319187919996</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
@@ -4293,7 +4293,7 @@
         <v>6.5638819971950104</v>
       </c>
       <c r="R51" s="19">
-        <v>30.146641210697201</v>
+        <v>30.1948244523951</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
@@ -4349,7 +4349,7 @@
         <v>6.9399687755793096</v>
       </c>
       <c r="R52" s="25">
-        <v>63.580054265265602</v>
+        <v>63.545103442808397</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
@@ -4405,7 +4405,7 @@
         <v>17.437893145191602</v>
       </c>
       <c r="R53" s="25">
-        <v>18.015248912292702</v>
+        <v>19.4231713892963</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
@@ -4461,7 +4461,7 @@
         <v>2.20931665538872</v>
       </c>
       <c r="R54" s="25">
-        <v>31.960004645592999</v>
+        <v>32.0125450422886</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
@@ -4517,7 +4517,7 @@
         <v>30.942772299732599</v>
       </c>
       <c r="R55" s="25">
-        <v>27.445228821986099</v>
+        <v>27.3971836887204</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
@@ -4573,7 +4573,7 @@
         <v>38.428033169336302</v>
       </c>
       <c r="R56" s="25">
-        <v>14.050613433411201</v>
+        <v>15.496881969881301</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
@@ -4629,7 +4629,7 @@
         <v>3.4353166809928499</v>
       </c>
       <c r="R57" s="38">
-        <v>11.517781590861601</v>
+        <v>11.499661296247799</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
@@ -4685,7 +4685,7 @@
         <v>15.5926824092577</v>
       </c>
       <c r="R58" s="25">
-        <v>23.161162427367302</v>
+        <v>23.373588354331201</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
@@ -4741,7 +4741,7 @@
         <v>6.5198651786696198</v>
       </c>
       <c r="R59" s="25">
-        <v>21.6824426840613</v>
+        <v>26.864112802491</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4797,7 +4797,7 @@
         <v>19.3059155866951</v>
       </c>
       <c r="R60" s="19">
-        <v>26.9419895612338</v>
+        <v>22.5931424248264</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4853,7 +4853,7 @@
         <v>11.5094898237679</v>
       </c>
       <c r="R61" s="32">
-        <v>17.6965419029058</v>
+        <v>17.668744907026699</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4909,7 +4909,7 @@
         <v>13.310857995767901</v>
       </c>
       <c r="R62" s="46">
-        <v>21.489119045123299</v>
+        <v>21.428809165303299</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4965,7 +4965,7 @@
         <v>59.073292810869297</v>
       </c>
       <c r="R63" s="52">
-        <v>28.814277842218701</v>
+        <v>29.074255902749801</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
@@ -5021,7 +5021,7 @@
         <v>39.644434245289702</v>
       </c>
       <c r="R64" s="46">
-        <v>26.919654560318001</v>
+        <v>27.112143836084599</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
@@ -5077,7 +5077,7 @@
         <v>60.044177145777397</v>
       </c>
       <c r="R65" s="59">
-        <v>23.410453990255199</v>
+        <v>24.0965283884358</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5133,7 +5133,7 @@
         <v>57.693960017807903</v>
       </c>
       <c r="R66" s="65">
-        <v>28.443535893161901</v>
+        <v>28.688994384145701</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
@@ -5189,7 +5189,7 @@
         <v>12.0172276699048</v>
       </c>
       <c r="R67" s="71">
-        <v>15.8226914207878</v>
+        <v>15.827399720297199</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
@@ -5245,7 +5245,7 @@
         <v>6.7895523005026197</v>
       </c>
       <c r="R68" s="59">
-        <v>17.575823765812299</v>
+        <v>17.5819635585536</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
@@ -5301,7 +5301,7 @@
         <v>15.9653327492711</v>
       </c>
       <c r="R69" s="59">
-        <v>13.851326265611201</v>
+        <v>13.418753152565801</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
@@ -5357,7 +5357,7 @@
         <v>21.029309586230301</v>
       </c>
       <c r="R70" s="59">
-        <v>36.600813785606398</v>
+        <v>36.685339214373897</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
@@ -5413,7 +5413,7 @@
         <v>11.5094898237679</v>
       </c>
       <c r="R71" s="59">
-        <v>17.6965419029058</v>
+        <v>17.668744907026699</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
@@ -5469,7 +5469,7 @@
         <v>12.252283420156299</v>
       </c>
       <c r="R72" s="59">
-        <v>13.805923406794999</v>
+        <v>13.3876320778232</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
@@ -5525,7 +5525,7 @@
         <v>28.032443849068201</v>
       </c>
       <c r="R73" s="59">
-        <v>32.460052104770398</v>
+        <v>32.443122353982901</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
@@ -5581,7 +5581,7 @@
         <v>5.0264473101340803</v>
       </c>
       <c r="R74" s="59">
-        <v>30.437932494539901</v>
+        <v>30.495426343310001</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5637,7 +5637,7 @@
         <v>31.037627286067401</v>
       </c>
       <c r="R75" s="65">
-        <v>43.308849110552899</v>
+        <v>43.522693584562703</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
@@ -5693,7 +5693,7 @@
         <v>76.838323333691605</v>
       </c>
       <c r="R76" s="71">
-        <v>52.919892499025302</v>
+        <v>52.997166297673402</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
@@ -5749,7 +5749,7 @@
         <v>18.922822286590801</v>
       </c>
       <c r="R77" s="59">
-        <v>21.5029138307757</v>
+        <v>21.190808658086699</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
@@ -5805,7 +5805,7 @@
         <v>73.743347180598704</v>
       </c>
       <c r="R78" s="59">
-        <v>50.500418379071803</v>
+        <v>50.405171963548</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5861,7 +5861,7 @@
         <v>59.600281051765897</v>
       </c>
       <c r="R79" s="65">
-        <v>29.915627161081002</v>
+        <v>30.026167846821199</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
@@ -5917,7 +5917,7 @@
         <v>4.7465051074190798</v>
       </c>
       <c r="R80" s="71">
-        <v>20.9108828537717</v>
+        <v>20.986150259167299</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
@@ -5973,7 +5973,7 @@
         <v>50.201687345473303</v>
       </c>
       <c r="R81" s="59">
-        <v>35.116126893895498</v>
+        <v>37.656844581745602</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
@@ -6029,7 +6029,7 @@
         <v>15.303485251760099</v>
       </c>
       <c r="R82" s="59">
-        <v>21.7153960047746</v>
+        <v>21.601179840296101</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6085,7 +6085,7 @@
         <v>59.483918542703996</v>
       </c>
       <c r="R83" s="65">
-        <v>28.2466114077585</v>
+        <v>28.295846675813898</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
@@ -6141,7 +6141,7 @@
         <v>25.988659024398299</v>
       </c>
       <c r="R84" s="71">
-        <v>21.439943336380701</v>
+        <v>21.1779638950382</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
@@ -6197,7 +6197,7 @@
         <v>60.405341136752298</v>
       </c>
       <c r="R85" s="59">
-        <v>8.2496911782415907</v>
+        <v>12.080169759101199</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
@@ -6253,7 +6253,7 @@
         <v>8.09921372275595</v>
       </c>
       <c r="R86" s="59">
-        <v>19.238210618353701</v>
+        <v>19.234074729172399</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
@@ -6309,7 +6309,7 @@
         <v>69.788005288696695</v>
       </c>
       <c r="R87" s="59">
-        <v>23.608491825541702</v>
+        <v>25.213955396743401</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
@@ -6365,7 +6365,7 @@
         <v>21.956296074543602</v>
       </c>
       <c r="R88" s="59">
-        <v>32.364955203058699</v>
+        <v>32.2537412319464</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
@@ -6421,7 +6421,7 @@
         <v>53.009840564176201</v>
       </c>
       <c r="R89" s="59">
-        <v>26.526038238909599</v>
+        <v>26.486034597540002</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6477,7 +6477,7 @@
         <v>59.862072244631896</v>
       </c>
       <c r="R90" s="65">
-        <v>32.356046563277701</v>
+        <v>32.383493587139697</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
@@ -6533,7 +6533,7 @@
         <v>22.882304979916398</v>
       </c>
       <c r="R91" s="71">
-        <v>25.475042676762001</v>
+        <v>25.363513289198099</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
@@ -6589,7 +6589,7 @@
         <v>83.5495388951514</v>
       </c>
       <c r="R92" s="59">
-        <v>15.514039788078399</v>
+        <v>15.369241775483101</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
@@ -6645,7 +6645,7 @@
         <v>17.792565686839801</v>
       </c>
       <c r="R93" s="59">
-        <v>32.440655394114302</v>
+        <v>32.089359681950697</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
@@ -6701,7 +6701,7 @@
         <v>64.616501378087094</v>
       </c>
       <c r="R94" s="59">
-        <v>117.630529191443</v>
+        <v>117.52915593533599</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
@@ -6757,7 +6757,7 @@
         <v>40.532807021194202</v>
       </c>
       <c r="R95" s="59">
-        <v>21.1714109077956</v>
+        <v>20.347630778781198</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6813,7 +6813,7 @@
         <v>65.253243263579407</v>
       </c>
       <c r="R96" s="65">
-        <v>31.5695553884775</v>
+        <v>31.3023002992424</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
@@ -6869,7 +6869,7 @@
         <v>18.809868435112801</v>
       </c>
       <c r="R97" s="71">
-        <v>19.936913271102899</v>
+        <v>19.850907550630101</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6925,7 +6925,7 @@
         <v>71.576627570849695</v>
       </c>
       <c r="R98" s="65">
-        <v>14.8341905100767</v>
+        <v>21.334067301334301</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
@@ -7253,11 +7253,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D1A0C65F-63B3-42EF-8ABB-92D5146D6802}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{04F401C6-282A-49EB-AEEB-961690176538}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{7D45351C-7386-4C21-AF52-F90AE3A9AF89}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{27476854-80FB-4906-B88B-946576BD49D4}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{88A6A88A-0EC9-4D59-AFA4-2EAB62649917}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FB9D323C-5174-4D18-A58B-0FB263E4ACE0}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A40D3107-75FB-40D7-9723-0DDF314CB08B}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{2023AF7D-DEA3-4748-BE30-34EF8DE29FDC}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A839D632-8DD5-47E2-A9FD-9545F840D4D7}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{90B72896-5DD5-468F-A40E-86B833DDF20E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab19.xlsx
+++ b/AfDD_2023_Annex_Table_Tab19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA544AE8-F604-4DD7-ABBB-26F3A5EB5A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7CB1B35-FF3C-45E5-B966-10E1D9554B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6587DBF-9D8A-4D90-A28E-5AB071B3E135}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5ADEE54B-D807-48DF-941C-E67D5284BD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab19'!$A$2:$R$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab19'!$A$1:$R$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -282,7 +282,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -417,7 +417,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -564,7 +564,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated April 21, 2022).</t>
+    <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated 01/02/2023).</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1460,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CCAA47-A8C6-4404-AB02-DF160CEF9E3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232A59E2-09AB-4ADF-BD76-15BFCC57C43E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3292,55 +3292,55 @@
       <c r="A34" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="36">
         <v>0.19395321517472999</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="37">
         <v>0.19395321517472999</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="37">
         <v>0.24599632611783001</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="37">
         <v>53.103865822157999</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="37">
         <v>15.807952971288801</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="38">
         <v>1.5094328994350001E-2</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="37">
         <v>21.336702940380199</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="37">
         <v>21.336702940380199</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="37">
         <v>21.732558593172701</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="37">
         <v>16.066997207131099</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="37">
         <v>6.3048835267765604</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="38">
         <v>6.6200365780768404</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="39">
         <v>74.261460999999997</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="40">
         <v>171.96306999999999</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="37">
         <v>30.1600578538619</v>
       </c>
-      <c r="R34" s="19">
+      <c r="R34" s="38">
         <v>71.500734394283</v>
       </c>
     </row>
@@ -4580,55 +4580,55 @@
       <c r="A57" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="23">
         <v>5.4230744637060102</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="24">
         <v>5.3229334298763602</v>
       </c>
-      <c r="E57" s="37">
+      <c r="E57" s="24">
         <v>11.697729461373999</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="24">
         <v>5.16564986077403</v>
       </c>
-      <c r="G57" s="37">
+      <c r="G57" s="24">
         <v>35.104092359167701</v>
       </c>
-      <c r="H57" s="38">
+      <c r="H57" s="25">
         <v>6.3822503276893103</v>
       </c>
-      <c r="I57" s="37">
+      <c r="I57" s="24">
         <v>1.0571888066845301</v>
       </c>
-      <c r="J57" s="37">
+      <c r="J57" s="24">
         <v>0.45417439494171002</v>
       </c>
-      <c r="K57" s="37">
+      <c r="K57" s="24">
         <v>2.45771397628388</v>
       </c>
-      <c r="L57" s="37">
+      <c r="L57" s="24">
         <v>35.247692126400999</v>
       </c>
-      <c r="M57" s="37">
+      <c r="M57" s="24">
         <v>22.504822889731098</v>
       </c>
-      <c r="N57" s="38">
+      <c r="N57" s="25">
         <v>7.2150619944463701</v>
       </c>
-      <c r="O57" s="39">
+      <c r="O57" s="26">
         <v>926.81689900000003</v>
       </c>
-      <c r="P57" s="40">
+      <c r="P57" s="27">
         <v>26052.264945999999</v>
       </c>
-      <c r="Q57" s="37">
+      <c r="Q57" s="24">
         <v>3.4353166809928499</v>
       </c>
-      <c r="R57" s="38">
+      <c r="R57" s="25">
         <v>11.499661296247799</v>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
         <v>135</v>
       </c>
       <c r="C63" s="50">
-        <v>21.0475672117777</v>
+        <v>21.037187179382101</v>
       </c>
       <c r="D63" s="51" t="s">
         <v>95</v>
@@ -4938,7 +4938,7 @@
         <v>13.192353598235</v>
       </c>
       <c r="I63" s="51">
-        <v>21.631524953307402</v>
+        <v>21.620856930370401</v>
       </c>
       <c r="J63" s="51" t="s">
         <v>95</v>
@@ -4976,7 +4976,7 @@
         <v>136</v>
       </c>
       <c r="C64" s="44">
-        <v>8.1720718116734794</v>
+        <v>7.9979380828384503</v>
       </c>
       <c r="D64" s="45" t="s">
         <v>95</v>
@@ -4994,7 +4994,7 @@
         <v>39.711294269709597</v>
       </c>
       <c r="I64" s="45">
-        <v>8.0949529719758502</v>
+        <v>7.9224625217890603</v>
       </c>
       <c r="J64" s="45" t="s">
         <v>95</v>
@@ -5088,7 +5088,7 @@
         <v>138</v>
       </c>
       <c r="C66" s="63">
-        <v>20.732848775406499</v>
+        <v>20.722779798112601</v>
       </c>
       <c r="D66" s="64">
         <v>0.24766972958648001</v>
@@ -5106,7 +5106,7 @@
         <v>12.969216355707101</v>
       </c>
       <c r="I66" s="64">
-        <v>21.221814183056502</v>
+        <v>21.211507738078399</v>
       </c>
       <c r="J66" s="64">
         <v>0.25351079521146003</v>
@@ -5256,52 +5256,52 @@
         <v>141</v>
       </c>
       <c r="C69" s="57">
-        <v>30.804753050117899</v>
+        <v>18.704004237385501</v>
       </c>
       <c r="D69" s="58">
-        <v>17.8700279721476</v>
+        <v>10.2389425370054</v>
       </c>
       <c r="E69" s="58">
-        <v>32.286370093769101</v>
+        <v>19.557632168573502</v>
       </c>
       <c r="F69" s="58">
-        <v>4.5715519341523798</v>
+        <v>32.229608726358698</v>
       </c>
       <c r="G69" s="58">
-        <v>11.698919843398601</v>
+        <v>10.043044331856899</v>
       </c>
       <c r="H69" s="59">
-        <v>3.64857557275828</v>
+        <v>2.7354585090752401</v>
       </c>
       <c r="I69" s="58">
-        <v>11.309503175076101</v>
+        <v>15.5551173990207</v>
       </c>
       <c r="J69" s="58">
-        <v>7.3294239937531298</v>
+        <v>6.2124762126089301</v>
       </c>
       <c r="K69" s="58">
-        <v>13.1723305687568</v>
+        <v>17.171512120512801</v>
       </c>
       <c r="L69" s="58">
-        <v>26.692222442379201</v>
+        <v>27.133702433366501</v>
       </c>
       <c r="M69" s="58">
-        <v>9.7831144628537796</v>
+        <v>10.0465885377257</v>
       </c>
       <c r="N69" s="59">
-        <v>2.6783824456232801</v>
+        <v>2.6190126088146299</v>
       </c>
       <c r="O69" s="60">
-        <v>3787.5340630000001</v>
+        <v>5696.9891509999998</v>
       </c>
       <c r="P69" s="61">
-        <v>19935.955591000002</v>
+        <v>22477.856167000002</v>
       </c>
       <c r="Q69" s="58">
-        <v>15.9653327492711</v>
+        <v>20.220125742306699</v>
       </c>
       <c r="R69" s="59">
-        <v>13.418753152565801</v>
+        <v>17.506043086661101</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
@@ -5389,7 +5389,7 @@
         <v>6.6152413040632201</v>
       </c>
       <c r="J71" s="58">
-        <v>4.9301081686777897</v>
+        <v>4.9301081686777799</v>
       </c>
       <c r="K71" s="58">
         <v>8.2730643004494002</v>
@@ -5704,52 +5704,52 @@
         <v>149</v>
       </c>
       <c r="C77" s="57">
-        <v>15.5035782416928</v>
+        <v>15.251633705456999</v>
       </c>
       <c r="D77" s="58" t="s">
         <v>95</v>
       </c>
       <c r="E77" s="58">
-        <v>15.503589918599801</v>
+        <v>15.5371999710931</v>
       </c>
       <c r="F77" s="58">
-        <v>25.849454455485802</v>
+        <v>25.846585592498801</v>
       </c>
       <c r="G77" s="58">
-        <v>12.3187353111667</v>
+        <v>12.284278267398999</v>
       </c>
       <c r="H77" s="59">
-        <v>12.6946593097383</v>
+        <v>12.710648893884899</v>
       </c>
       <c r="I77" s="58">
-        <v>17.4614952582033</v>
+        <v>17.309914373468899</v>
       </c>
       <c r="J77" s="58" t="s">
         <v>95</v>
       </c>
       <c r="K77" s="58">
-        <v>17.461541851267899</v>
+        <v>17.362747222699799</v>
       </c>
       <c r="L77" s="58">
-        <v>25.152479555543401</v>
+        <v>25.077133065987098</v>
       </c>
       <c r="M77" s="58">
-        <v>14.5521339534015</v>
+        <v>14.6637220575351</v>
       </c>
       <c r="N77" s="59">
-        <v>17.527062731484801</v>
+        <v>17.4699000452995</v>
       </c>
       <c r="O77" s="60">
-        <v>60447.130127999997</v>
+        <v>59709.664426000003</v>
       </c>
       <c r="P77" s="61">
-        <v>258993.221911</v>
+        <v>256524.53182900001</v>
       </c>
       <c r="Q77" s="58">
-        <v>18.922822286590801</v>
+        <v>18.8814698514933</v>
       </c>
       <c r="R77" s="59">
-        <v>21.190808658086699</v>
+        <v>21.242089332629401</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
@@ -5799,7 +5799,7 @@
         <v>2527424.059779</v>
       </c>
       <c r="P78" s="61">
-        <v>899900.78566000005</v>
+        <v>899900.78566000098</v>
       </c>
       <c r="Q78" s="58">
         <v>73.743347180598704</v>
@@ -5816,7 +5816,7 @@
         <v>151</v>
       </c>
       <c r="C79" s="63">
-        <v>30.5398351051922</v>
+        <v>30.5365657733721</v>
       </c>
       <c r="D79" s="64" t="s">
         <v>95</v>
@@ -5834,7 +5834,7 @@
         <v>13.337502859111799</v>
       </c>
       <c r="I79" s="64">
-        <v>27.8997826039183</v>
+        <v>27.899202909512301</v>
       </c>
       <c r="J79" s="64" t="s">
         <v>95</v>
@@ -5872,52 +5872,52 @@
         <v>152</v>
       </c>
       <c r="C80" s="69">
-        <v>3.3584081924573699</v>
+        <v>2.4011858627747</v>
       </c>
       <c r="D80" s="70">
-        <v>2.9966766119305599</v>
+        <v>1.9215864984017501</v>
       </c>
       <c r="E80" s="70">
-        <v>5.8504278294972796</v>
+        <v>3.1545137175068199</v>
       </c>
       <c r="F80" s="70">
-        <v>18.315661272867398</v>
+        <v>24.477729951217601</v>
       </c>
       <c r="G80" s="70">
-        <v>38.673707851645098</v>
+        <v>40.201918439031999</v>
       </c>
       <c r="H80" s="71">
-        <v>4.8366767204889598</v>
+        <v>4.1091466494897997</v>
       </c>
       <c r="I80" s="70">
-        <v>2.8325445298071101</v>
+        <v>4.4440351713443098</v>
       </c>
       <c r="J80" s="70">
-        <v>2.6658936810689502</v>
+        <v>4.6243523103592503</v>
       </c>
       <c r="K80" s="70">
-        <v>4.9545435236661497</v>
+        <v>7.1172631482859297</v>
       </c>
       <c r="L80" s="70">
-        <v>25.366711913714202</v>
+        <v>17.448046515252202</v>
       </c>
       <c r="M80" s="70">
-        <v>30.714419367990299</v>
+        <v>36.933361431081501</v>
       </c>
       <c r="N80" s="71">
-        <v>4.6151217386686296</v>
+        <v>2.5814259251375198</v>
       </c>
       <c r="O80" s="72">
-        <v>3107.0861620000001</v>
+        <v>2254.5307240000002</v>
       </c>
       <c r="P80" s="73">
-        <v>62353.417759999997</v>
+        <v>36473.115883999999</v>
       </c>
       <c r="Q80" s="70">
-        <v>4.7465051074190798</v>
+        <v>5.8215020055834703</v>
       </c>
       <c r="R80" s="71">
-        <v>20.986150259167299</v>
+        <v>33.526005766710099</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
@@ -5928,7 +5928,7 @@
         <v>153</v>
       </c>
       <c r="C81" s="57">
-        <v>0.51354007516002997</v>
+        <v>0.49071718579849</v>
       </c>
       <c r="D81" s="58" t="s">
         <v>95</v>
@@ -5946,7 +5946,7 @@
         <v>4.3730147228704803</v>
       </c>
       <c r="I81" s="58">
-        <v>0.92388857313655004</v>
+        <v>0.75368125841644995</v>
       </c>
       <c r="J81" s="58" t="s">
         <v>95</v>
@@ -5984,52 +5984,52 @@
         <v>154</v>
       </c>
       <c r="C82" s="57">
-        <v>13.6063688357558</v>
+        <v>12.654053815067201</v>
       </c>
       <c r="D82" s="58">
-        <v>10.508685437792201</v>
+        <v>9.9073058529013007</v>
       </c>
       <c r="E82" s="58">
-        <v>15.225494854728201</v>
+        <v>14.8256094560588</v>
       </c>
       <c r="F82" s="58">
-        <v>11.340429318168299</v>
+        <v>10.561765462162001</v>
       </c>
       <c r="G82" s="58">
-        <v>23.999721060530099</v>
+        <v>25.322534676349601</v>
       </c>
       <c r="H82" s="59">
-        <v>6.1335543852618999</v>
+        <v>6.1700536280016003</v>
       </c>
       <c r="I82" s="58">
-        <v>11.2617626952989</v>
+        <v>10.203091870475999</v>
       </c>
       <c r="J82" s="58">
-        <v>8.7121965332674396</v>
+        <v>7.8489852321663802</v>
       </c>
       <c r="K82" s="58">
-        <v>12.8536867421605</v>
+        <v>11.7771680450684</v>
       </c>
       <c r="L82" s="58">
-        <v>20.565938684388701</v>
+        <v>22.074595421055701</v>
       </c>
       <c r="M82" s="58">
-        <v>23.9825520998921</v>
+        <v>23.856999821917402</v>
       </c>
       <c r="N82" s="59">
-        <v>3.9383819298823899</v>
+        <v>4.26973907975131</v>
       </c>
       <c r="O82" s="60">
-        <v>43056.446177999998</v>
+        <v>43909.001616000001</v>
       </c>
       <c r="P82" s="61">
-        <v>238294.14468200001</v>
+        <v>264174.446558</v>
       </c>
       <c r="Q82" s="58">
-        <v>15.303485251760099</v>
+        <v>14.2523078978268</v>
       </c>
       <c r="R82" s="59">
-        <v>21.601179840296101</v>
+        <v>19.7320523288654</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6040,7 +6040,7 @@
         <v>155</v>
       </c>
       <c r="C83" s="63">
-        <v>22.765835060445699</v>
+        <v>22.756496234479201</v>
       </c>
       <c r="D83" s="64" t="s">
         <v>95</v>
@@ -6058,7 +6058,7 @@
         <v>13.930347482007701</v>
       </c>
       <c r="I83" s="64">
-        <v>22.824159520426701</v>
+        <v>22.822679995428501</v>
       </c>
       <c r="J83" s="64" t="s">
         <v>95</v>
@@ -6096,52 +6096,52 @@
         <v>156</v>
       </c>
       <c r="C84" s="69">
-        <v>7.1382538617804201</v>
+        <v>8.6005331753162402</v>
       </c>
       <c r="D84" s="70">
-        <v>5.1138999326439096</v>
+        <v>5.2256324298694397</v>
       </c>
       <c r="E84" s="70">
-        <v>8.2587061810045892</v>
+        <v>9.5925783976354104</v>
       </c>
       <c r="F84" s="70">
-        <v>21.012227287187301</v>
+        <v>20.440277551588199</v>
       </c>
       <c r="G84" s="70">
-        <v>11.7060855727981</v>
+        <v>10.6950260485367</v>
       </c>
       <c r="H84" s="71">
-        <v>2.1753862878218202</v>
+        <v>2.08529597268606</v>
       </c>
       <c r="I84" s="70">
-        <v>16.751825932984399</v>
+        <v>18.421471441634399</v>
       </c>
       <c r="J84" s="70">
-        <v>11.169389440274299</v>
+        <v>12.7087825503695</v>
       </c>
       <c r="K84" s="70">
-        <v>17.9201992437504</v>
+        <v>19.544961161751498</v>
       </c>
       <c r="L84" s="70">
-        <v>24.222635198903902</v>
+        <v>23.602966882239699</v>
       </c>
       <c r="M84" s="70">
-        <v>13.7865060182604</v>
+        <v>13.4161642777261</v>
       </c>
       <c r="N84" s="71">
-        <v>2.7156060948036602</v>
+        <v>2.6929448239588001</v>
       </c>
       <c r="O84" s="72">
-        <v>12181.256259</v>
+        <v>14244.118775999999</v>
       </c>
       <c r="P84" s="73">
-        <v>34690.174266000002</v>
+        <v>36555.894638999998</v>
       </c>
       <c r="Q84" s="70">
-        <v>25.988659024398299</v>
+        <v>28.0395964852129</v>
       </c>
       <c r="R84" s="71">
-        <v>21.1779638950382</v>
+        <v>22.9083781831132</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
@@ -6208,52 +6208,52 @@
         <v>158</v>
       </c>
       <c r="C86" s="57">
-        <v>9.6267083721431295</v>
+        <v>9.2612074822961095</v>
       </c>
       <c r="D86" s="58">
-        <v>6.77422741639481</v>
+        <v>6.8097981743379297</v>
       </c>
       <c r="E86" s="58">
-        <v>11.8651677170929</v>
+        <v>11.589488288448001</v>
       </c>
       <c r="F86" s="58">
-        <v>11.2188358297512</v>
+        <v>10.980849653021901</v>
       </c>
       <c r="G86" s="58">
-        <v>33.958160784641898</v>
+        <v>35.246278696657299</v>
       </c>
       <c r="H86" s="59">
-        <v>5.11448289895523</v>
+        <v>5.2705651531983797</v>
       </c>
       <c r="I86" s="58">
-        <v>6.0388916182762502</v>
+        <v>5.3546771941181799</v>
       </c>
       <c r="J86" s="58">
-        <v>4.7744584589413304</v>
+        <v>4.2033479991628298</v>
       </c>
       <c r="K86" s="58">
-        <v>7.4345793040189401</v>
+        <v>6.7677173756485098</v>
       </c>
       <c r="L86" s="58">
-        <v>21.993777404679701</v>
+        <v>22.141291303080902</v>
       </c>
       <c r="M86" s="58">
-        <v>28.359021906989302</v>
+        <v>28.7199746016394</v>
       </c>
       <c r="N86" s="59">
-        <v>4.3981884504815003</v>
+        <v>4.43384032922821</v>
       </c>
       <c r="O86" s="60">
-        <v>18662.538390000002</v>
+        <v>16599.675873</v>
       </c>
       <c r="P86" s="61">
-        <v>211761.53768499999</v>
+        <v>209895.817312</v>
       </c>
       <c r="Q86" s="58">
-        <v>8.09921372275595</v>
+        <v>7.3289210480852702</v>
       </c>
       <c r="R86" s="59">
-        <v>19.234074729172399</v>
+        <v>18.7669602699739</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
@@ -6264,52 +6264,52 @@
         <v>159</v>
       </c>
       <c r="C87" s="57">
-        <v>8.1559738437694396</v>
+        <v>8.1301786224704902</v>
       </c>
       <c r="D87" s="58" t="s">
         <v>95</v>
       </c>
       <c r="E87" s="58">
-        <v>50.737133773341</v>
+        <v>50.713429561814998</v>
       </c>
       <c r="F87" s="58">
-        <v>13.749673850969501</v>
+        <v>13.708834608225599</v>
       </c>
       <c r="G87" s="58">
-        <v>15.352014636760901</v>
+        <v>15.3494760663334</v>
       </c>
       <c r="H87" s="59">
-        <v>17.779215458904101</v>
+        <v>17.7325451631135</v>
       </c>
       <c r="I87" s="58">
-        <v>9.8717552268031294</v>
+        <v>9.7868241672774907</v>
       </c>
       <c r="J87" s="58" t="s">
         <v>95</v>
       </c>
       <c r="K87" s="58">
-        <v>71.859050290278802</v>
+        <v>71.426502328620401</v>
       </c>
       <c r="L87" s="58">
-        <v>26.577504537422001</v>
+        <v>26.424296303121899</v>
       </c>
       <c r="M87" s="58">
-        <v>8.2864120091987701</v>
+        <v>8.5834385011796694</v>
       </c>
       <c r="N87" s="59">
-        <v>5.42432346744196</v>
+        <v>5.40167395772602</v>
       </c>
       <c r="O87" s="60">
-        <v>841839.71079000004</v>
+        <v>843738.97567199997</v>
       </c>
       <c r="P87" s="61">
-        <v>364441.66565500002</v>
+        <v>368651.04222</v>
       </c>
       <c r="Q87" s="58">
-        <v>69.788005288696695</v>
+        <v>69.593032210791506</v>
       </c>
       <c r="R87" s="59">
-        <v>25.213955396743401</v>
+        <v>25.2110602250767</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
@@ -6376,52 +6376,52 @@
         <v>161</v>
       </c>
       <c r="C89" s="57">
-        <v>5.3517993080325503</v>
+        <v>4.3625122931659499</v>
       </c>
       <c r="D89" s="58" t="s">
         <v>95</v>
       </c>
       <c r="E89" s="58">
-        <v>50.477553546307597</v>
+        <v>49.997233388442197</v>
       </c>
       <c r="F89" s="58">
-        <v>5.54502179213699</v>
+        <v>5.5939559620255803</v>
       </c>
       <c r="G89" s="58">
-        <v>19.09579933038</v>
+        <v>18.3362235448006</v>
       </c>
       <c r="H89" s="59">
-        <v>18.171279001854099</v>
+        <v>18.434767162071001</v>
       </c>
       <c r="I89" s="58">
-        <v>6.5153343190154596</v>
+        <v>4.88256346619188</v>
       </c>
       <c r="J89" s="58" t="s">
         <v>95</v>
       </c>
       <c r="K89" s="58">
-        <v>52.335087803843102</v>
+        <v>51.7714689194515</v>
       </c>
       <c r="L89" s="58">
-        <v>11.3427513341696</v>
+        <v>11.3836219402704</v>
       </c>
       <c r="M89" s="58">
-        <v>17.962030149469101</v>
+        <v>16.563273299294899</v>
       </c>
       <c r="N89" s="59">
-        <v>12.6820183773132</v>
+        <v>12.9755643001354</v>
       </c>
       <c r="O89" s="60">
-        <v>1599320.36182</v>
+        <v>1538453.8320919999</v>
       </c>
       <c r="P89" s="61">
-        <v>1417705.0523270001</v>
+        <v>1395429.4021340001</v>
       </c>
       <c r="Q89" s="58">
-        <v>53.009840564176201</v>
+        <v>52.437459478439898</v>
       </c>
       <c r="R89" s="59">
-        <v>26.486034597540002</v>
+        <v>26.250108762484999</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6432,52 +6432,52 @@
         <v>162</v>
       </c>
       <c r="C90" s="63">
-        <v>30.346862729969601</v>
+        <v>30.617579547759401</v>
       </c>
       <c r="D90" s="64">
-        <v>6.6591927961000004E-4</v>
+        <v>6.6067933136000005E-4</v>
       </c>
       <c r="E90" s="64">
-        <v>62.8115470747573</v>
+        <v>62.9500362672634</v>
       </c>
       <c r="F90" s="64">
-        <v>9.7391294051468407</v>
+        <v>9.68418525676916</v>
       </c>
       <c r="G90" s="64">
-        <v>37.6193780247158</v>
+        <v>37.843561281895902</v>
       </c>
       <c r="H90" s="65">
-        <v>10.1916443337083</v>
+        <v>10.1321705023073</v>
       </c>
       <c r="I90" s="64">
-        <v>28.374757228487798</v>
+        <v>28.6655129497018</v>
       </c>
       <c r="J90" s="64">
-        <v>3.5111449268000001E-4</v>
+        <v>3.4715980557000002E-4</v>
       </c>
       <c r="K90" s="64">
-        <v>57.488448412802299</v>
+        <v>57.6485619725687</v>
       </c>
       <c r="L90" s="64">
-        <v>13.907323011125101</v>
+        <v>13.868031175724299</v>
       </c>
       <c r="M90" s="64">
-        <v>38.343526964289602</v>
+        <v>38.5416267439008</v>
       </c>
       <c r="N90" s="65">
-        <v>6.7058838039661497</v>
+        <v>6.6886904504967903</v>
       </c>
       <c r="O90" s="66">
-        <v>4143872.0695529999</v>
+        <v>4202839.3343989998</v>
       </c>
       <c r="P90" s="67">
-        <v>2778494.4877200001</v>
+        <v>2796560.7613479998</v>
       </c>
       <c r="Q90" s="64">
-        <v>59.862072244631896</v>
+        <v>60.045707873632502</v>
       </c>
       <c r="R90" s="65">
-        <v>32.383493587139697</v>
+        <v>32.487236691912202</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
@@ -6500,7 +6500,7 @@
         <v>27.8217419905295</v>
       </c>
       <c r="G91" s="70">
-        <v>10.040083277522101</v>
+        <v>10.0400832775222</v>
       </c>
       <c r="H91" s="71">
         <v>2.4406116964115201</v>
@@ -6521,7 +6521,7 @@
         <v>14.972389723528099</v>
       </c>
       <c r="N91" s="71">
-        <v>2.7873951834980599</v>
+        <v>2.7873951834980701</v>
       </c>
       <c r="O91" s="72">
         <v>17989.478930000001</v>
@@ -6656,52 +6656,52 @@
         <v>166</v>
       </c>
       <c r="C94" s="57">
-        <v>21.620909606837699</v>
+        <v>22.383827657065201</v>
       </c>
       <c r="D94" s="58" t="s">
         <v>95</v>
       </c>
       <c r="E94" s="58">
-        <v>69.881908106659793</v>
+        <v>69.865792647512905</v>
       </c>
       <c r="F94" s="58">
-        <v>14.2011270120795</v>
+        <v>14.6262409356732</v>
       </c>
       <c r="G94" s="58">
-        <v>7.5110424336135599</v>
+        <v>7.4913350418255202</v>
       </c>
       <c r="H94" s="59">
-        <v>11.055710742681001</v>
+        <v>11.186886395701601</v>
       </c>
       <c r="I94" s="58">
-        <v>18.1045196148212</v>
+        <v>18.720985010699302</v>
       </c>
       <c r="J94" s="58" t="s">
         <v>95</v>
       </c>
       <c r="K94" s="58">
-        <v>62.418227447134299</v>
+        <v>62.392903299207198</v>
       </c>
       <c r="L94" s="58">
-        <v>15.0048703612367</v>
+        <v>15.2177118122791</v>
       </c>
       <c r="M94" s="58">
-        <v>9.89314455033049</v>
+        <v>9.9125483572650595</v>
       </c>
       <c r="N94" s="59">
-        <v>12.123598967213301</v>
+        <v>12.394838365186301</v>
       </c>
       <c r="O94" s="60">
-        <v>171386.76669300001</v>
+        <v>167265.55033500001</v>
       </c>
       <c r="P94" s="61">
-        <v>93850.073800999904</v>
+        <v>89984.778105000005</v>
       </c>
       <c r="Q94" s="58">
-        <v>64.616501378087094</v>
+        <v>65.020539079316407</v>
       </c>
       <c r="R94" s="59">
-        <v>117.52915593533599</v>
+        <v>119.542274839231</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
@@ -6768,7 +6768,7 @@
         <v>168</v>
       </c>
       <c r="C96" s="63">
-        <v>10.1078929501011</v>
+        <v>10.101432542168199</v>
       </c>
       <c r="D96" s="64" t="s">
         <v>95</v>
@@ -6786,7 +6786,7 @@
         <v>2.01768031550984</v>
       </c>
       <c r="I96" s="64">
-        <v>7.2665035757960803</v>
+        <v>7.2657648919412701</v>
       </c>
       <c r="J96" s="64" t="s">
         <v>95</v>
@@ -6824,52 +6824,52 @@
         <v>169</v>
       </c>
       <c r="C97" s="69">
-        <v>8.3741161413562306</v>
+        <v>8.3792316689101796</v>
       </c>
       <c r="D97" s="70">
-        <v>6.2839892420430701</v>
+        <v>6.2807732274710899</v>
       </c>
       <c r="E97" s="70">
-        <v>10.442196269357501</v>
+        <v>10.435107398695299</v>
       </c>
       <c r="F97" s="70">
-        <v>19.159050846568501</v>
+        <v>19.065495771948601</v>
       </c>
       <c r="G97" s="70">
-        <v>23.281025317936201</v>
+        <v>23.137842320457999</v>
       </c>
       <c r="H97" s="71">
-        <v>4.0992106808784001</v>
+        <v>4.0718986786618103</v>
       </c>
       <c r="I97" s="70">
-        <v>12.5075113635809</v>
+        <v>12.4967706138194</v>
       </c>
       <c r="J97" s="70">
-        <v>9.1181751870091503</v>
+        <v>9.1065276129862607</v>
       </c>
       <c r="K97" s="70">
-        <v>14.2633532638426</v>
+        <v>14.246479490080301</v>
       </c>
       <c r="L97" s="70">
-        <v>25.786535802189999</v>
+        <v>25.7184187600397</v>
       </c>
       <c r="M97" s="70">
-        <v>17.4804442970404</v>
+        <v>17.4780791261717</v>
       </c>
       <c r="N97" s="71">
-        <v>3.5004169173311599</v>
+        <v>3.5481472897445299</v>
       </c>
       <c r="O97" s="72">
-        <v>24210.303541000001</v>
+        <v>24595.345738</v>
       </c>
       <c r="P97" s="73">
-        <v>104500.344407</v>
+        <v>106194.59607699999</v>
       </c>
       <c r="Q97" s="70">
-        <v>18.809868435112801</v>
+        <v>18.805227219069899</v>
       </c>
       <c r="R97" s="71">
-        <v>19.850907550630101</v>
+        <v>19.900104646614501</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6880,52 +6880,52 @@
         <v>170</v>
       </c>
       <c r="C98" s="63">
-        <v>4.8829472200669803</v>
+        <v>4.66400865371864</v>
       </c>
       <c r="D98" s="64" t="s">
         <v>95</v>
       </c>
       <c r="E98" s="64">
-        <v>50.720491662662099</v>
+        <v>51.390117586038897</v>
       </c>
       <c r="F98" s="64">
-        <v>17.036150685168799</v>
+        <v>18.2463159712125</v>
       </c>
       <c r="G98" s="64">
-        <v>23.4159413012896</v>
+        <v>22.935452938273901</v>
       </c>
       <c r="H98" s="65">
-        <v>14.718397894426101</v>
+        <v>14.3580957724083</v>
       </c>
       <c r="I98" s="64">
-        <v>10.1954489003171</v>
+        <v>9.6518303448420095</v>
       </c>
       <c r="J98" s="64" t="s">
         <v>95</v>
       </c>
       <c r="K98" s="64">
-        <v>72.193782954929105</v>
+        <v>71.864936834114602</v>
       </c>
       <c r="L98" s="64">
-        <v>26.401553069641299</v>
+        <v>26.3136239944095</v>
       </c>
       <c r="M98" s="64">
-        <v>6.7223714378757702</v>
+        <v>6.8216985160721304</v>
       </c>
       <c r="N98" s="65">
-        <v>6.63302886187443</v>
+        <v>6.5851690538944103</v>
       </c>
       <c r="O98" s="66">
-        <v>169215.50544000001</v>
+        <v>169967.09270499999</v>
       </c>
       <c r="P98" s="67">
-        <v>67196.171363999994</v>
+        <v>68339.862015000093</v>
       </c>
       <c r="Q98" s="64">
-        <v>71.576627570849695</v>
+        <v>71.322758038977</v>
       </c>
       <c r="R98" s="65">
-        <v>21.334067301334301</v>
+        <v>21.218698603510401</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
@@ -7253,11 +7253,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FB9D323C-5174-4D18-A58B-0FB263E4ACE0}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A40D3107-75FB-40D7-9723-0DDF314CB08B}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{2023AF7D-DEA3-4748-BE30-34EF8DE29FDC}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A839D632-8DD5-47E2-A9FD-9545F840D4D7}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{90B72896-5DD5-468F-A40E-86B833DDF20E}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{472C75B5-1C16-44F5-A572-F8ABDD02C49E}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{89FF2F7A-DBFF-498D-B755-8CA0D8A763EE}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{D7A5CC4A-B58D-49B6-89E5-C09EB3197BD5}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3C459C3D-6FE5-425C-85F8-1B4CD27292CE}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{95A5E443-0BD9-4E0D-B7A3-59237C111CDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab19.xlsx
+++ b/AfDD_2023_Annex_Table_Tab19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7CB1B35-FF3C-45E5-B966-10E1D9554B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C1FB9F1-AF23-48DA-A94D-013A1786045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5ADEE54B-D807-48DF-941C-E67D5284BD6F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{129F628D-16A8-4332-B1B6-171A56F228E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -1460,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232A59E2-09AB-4ADF-BD76-15BFCC57C43E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF848D15-C0CA-4165-AF52-49A44886106B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7253,11 +7253,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{472C75B5-1C16-44F5-A572-F8ABDD02C49E}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{89FF2F7A-DBFF-498D-B755-8CA0D8A763EE}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{D7A5CC4A-B58D-49B6-89E5-C09EB3197BD5}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3C459C3D-6FE5-425C-85F8-1B4CD27292CE}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{95A5E443-0BD9-4E0D-B7A3-59237C111CDD}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8F8C130F-33AD-44BE-A19A-3E116F943261}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{AA81AD97-5C90-40D2-96DE-9DF9A5C54A5A}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{9CADF723-DB58-4428-BA92-3227B636C955}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{63EC26AA-1E3F-4EAD-A5EB-EDE6A57B6B0F}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{C89B3EA3-D0D3-4E62-B2B0-5EAA578C6783}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab19.xlsx
+++ b/AfDD_2023_Annex_Table_Tab19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C1FB9F1-AF23-48DA-A94D-013A1786045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96828FB4-9676-4919-A0B1-1AEDCB13FAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{129F628D-16A8-4332-B1B6-171A56F228E3}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5B94DC2C-21F3-4462-846D-19EDE142BEEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated 01/02/2023).</t>
@@ -1460,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF848D15-C0CA-4165-AF52-49A44886106B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B0BD04-02FF-4C61-9C40-85E527755896}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5159,7 +5159,7 @@
         <v>33.0954596384395</v>
       </c>
       <c r="H67" s="71">
-        <v>5.2917556161347203</v>
+        <v>5.2917556161347301</v>
       </c>
       <c r="I67" s="70">
         <v>10.214211945277199</v>
@@ -5171,7 +5171,7 @@
         <v>10.852967464045101</v>
       </c>
       <c r="L67" s="70">
-        <v>18.601144175363999</v>
+        <v>18.601144175363899</v>
       </c>
       <c r="M67" s="70">
         <v>22.403192860370201</v>
@@ -5345,7 +5345,7 @@
         <v>22.777751737924</v>
       </c>
       <c r="N70" s="59">
-        <v>3.0075790621502798</v>
+        <v>3.00757906215029</v>
       </c>
       <c r="O70" s="60">
         <v>3760.6474579999999</v>
@@ -6824,52 +6824,52 @@
         <v>169</v>
       </c>
       <c r="C97" s="69">
-        <v>8.3792316689101796</v>
+        <v>9.2329908505254696</v>
       </c>
       <c r="D97" s="70">
-        <v>6.2807732274710899</v>
+        <v>7.11636757045701</v>
       </c>
       <c r="E97" s="70">
-        <v>10.435107398695299</v>
+        <v>11.370953785518401</v>
       </c>
       <c r="F97" s="70">
-        <v>19.065495771948601</v>
+        <v>15.8363945094399</v>
       </c>
       <c r="G97" s="70">
-        <v>23.137842320457999</v>
+        <v>24.4636653418919</v>
       </c>
       <c r="H97" s="71">
-        <v>4.0718986786618103</v>
+        <v>4.4669461356271798</v>
       </c>
       <c r="I97" s="70">
-        <v>12.4967706138194</v>
+        <v>11.807813104587201</v>
       </c>
       <c r="J97" s="70">
-        <v>9.1065276129862607</v>
+        <v>9.7750280506337699</v>
       </c>
       <c r="K97" s="70">
-        <v>14.246479490080301</v>
+        <v>13.507604281606</v>
       </c>
       <c r="L97" s="70">
-        <v>25.7184187600397</v>
+        <v>25.983298779366599</v>
       </c>
       <c r="M97" s="70">
-        <v>17.4780791261717</v>
+        <v>18.089948175338598</v>
       </c>
       <c r="N97" s="71">
-        <v>3.5481472897445299</v>
+        <v>3.6910943397805802</v>
       </c>
       <c r="O97" s="72">
-        <v>24595.345738</v>
+        <v>21583.432691000002</v>
       </c>
       <c r="P97" s="73">
-        <v>106194.59607699999</v>
+        <v>96378.972787999999</v>
       </c>
       <c r="Q97" s="70">
-        <v>18.805227219069899</v>
+        <v>18.296873994183098</v>
       </c>
       <c r="R97" s="71">
-        <v>19.900104646614501</v>
+        <v>18.5436913281488</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6880,52 +6880,52 @@
         <v>170</v>
       </c>
       <c r="C98" s="63">
-        <v>4.66400865371864</v>
+        <v>6.5883938736442298</v>
       </c>
       <c r="D98" s="64" t="s">
         <v>95</v>
       </c>
       <c r="E98" s="64">
-        <v>51.390117586038897</v>
+        <v>42.999359961668297</v>
       </c>
       <c r="F98" s="64">
-        <v>18.2463159712125</v>
+        <v>14.546495702032599</v>
       </c>
       <c r="G98" s="64">
-        <v>22.935452938273901</v>
+        <v>23.9815661593687</v>
       </c>
       <c r="H98" s="65">
-        <v>14.3580957724083</v>
+        <v>18.139540819206601</v>
       </c>
       <c r="I98" s="64">
-        <v>9.6518303448420095</v>
+        <v>11.9716161625933</v>
       </c>
       <c r="J98" s="64" t="s">
         <v>95</v>
       </c>
       <c r="K98" s="64">
-        <v>71.864936834114602</v>
+        <v>74.102027717615599</v>
       </c>
       <c r="L98" s="64">
-        <v>26.3136239944095</v>
+        <v>28.0554149027077</v>
       </c>
       <c r="M98" s="64">
-        <v>6.8216985160721304</v>
+        <v>6.4795842201088698</v>
       </c>
       <c r="N98" s="65">
-        <v>6.5851690538944103</v>
+        <v>7.4546122748981301</v>
       </c>
       <c r="O98" s="66">
-        <v>169967.09270499999</v>
+        <v>153212.318306</v>
       </c>
       <c r="P98" s="67">
-        <v>68339.862015000093</v>
+        <v>54680.485189000101</v>
       </c>
       <c r="Q98" s="64">
-        <v>71.322758038977</v>
+        <v>73.697749864480002</v>
       </c>
       <c r="R98" s="65">
-        <v>21.218698603510401</v>
+        <v>19.255816473796202</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
@@ -7253,11 +7253,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8F8C130F-33AD-44BE-A19A-3E116F943261}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{AA81AD97-5C90-40D2-96DE-9DF9A5C54A5A}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{9CADF723-DB58-4428-BA92-3227B636C955}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{63EC26AA-1E3F-4EAD-A5EB-EDE6A57B6B0F}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{C89B3EA3-D0D3-4E62-B2B0-5EAA578C6783}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3C402F4D-6015-45BC-A4BD-E19D3AA18C0D}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{61E035D1-CEAD-49A2-BD78-758226E5FA6E}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{D67071E1-68A0-43CC-AF18-A452C7A1CA25}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{62B497CB-676C-49A5-A197-933A44A110F8}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{071E6828-3454-40B2-B627-C755ED068F60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab19.xlsx
+++ b/AfDD_2023_Annex_Table_Tab19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96828FB4-9676-4919-A0B1-1AEDCB13FAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB79C0F6-77FB-42F3-A88B-7B0B06E8C420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5B94DC2C-21F3-4462-846D-19EDE142BEEA}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{DB50FF5F-C19B-457A-A42E-1605DD40F07C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="182">
   <si>
     <t>Table 19: Global and regional trade</t>
   </si>
@@ -570,16 +570,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B0BD04-02FF-4C61-9C40-85E527755896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3775D8-3624-4E90-B585-1EBA71966DF0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7131,7 +7134,7 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
@@ -7152,7 +7155,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -7172,7 +7175,9 @@
       <c r="R110" s="76"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
       <c r="E111" s="76"/>
@@ -7192,7 +7197,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -7213,7 +7218,7 @@
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -7253,13 +7258,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3C402F4D-6015-45BC-A4BD-E19D3AA18C0D}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{61E035D1-CEAD-49A2-BD78-758226E5FA6E}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{D67071E1-68A0-43CC-AF18-A452C7A1CA25}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{62B497CB-676C-49A5-A197-933A44A110F8}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{071E6828-3454-40B2-B627-C755ED068F60}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EEE3AE51-2632-4830-9C5C-6D517341AC83}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F56230E4-EF01-4B75-BE6B-F16F7BBCEB46}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{7B4989D4-8217-4CB3-927F-7C62C1DCCE58}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{CDF43B40-DF77-4C6B-9821-00EB88DB9E3E}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{9F50B23A-AA22-46DB-8844-F2EDF4F0C5E7}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3780692E-A95B-4F24-8E83-157B5A404BB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab19.xlsx
+++ b/AfDD_2023_Annex_Table_Tab19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB79C0F6-77FB-42F3-A88B-7B0B06E8C420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{252720E5-29B7-400A-82AD-5F3A91EB0B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{DB50FF5F-C19B-457A-A42E-1605DD40F07C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{C38640CE-C22E-433A-A6CD-400EA13BC380}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab19'!$A$2:$R$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab19'!$A$1:$R$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="182">
   <si>
     <t>Table 19: Global and regional trade</t>
   </si>
@@ -237,6 +237,9 @@
     <t>Eritrea</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>ETH</t>
   </si>
   <si>
@@ -322,9 +325,6 @@
   </si>
   <si>
     <t>Libya*</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>MRT</t>
@@ -1463,7 +1463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3775D8-3624-4E90-B585-1EBA71966DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2382961-5D44-4A8C-86C4-C239DD2C94CD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1471,14 +1471,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="12.36328125" style="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="12.33203125" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1499,7 +1499,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -1608,10 +1608,10 @@
         <v>6.4906562402401802</v>
       </c>
       <c r="R3" s="13">
-        <v>45.025733623187897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>44.983369354109797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
@@ -1664,10 +1664,10 @@
         <v>51.093423167035098</v>
       </c>
       <c r="R4" s="19">
-        <v>41.891955685351803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>41.960570590450502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -1720,10 +1720,10 @@
         <v>74.028869201324696</v>
       </c>
       <c r="R5" s="25">
-        <v>45.040888826404696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45.037318436425998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -1776,10 +1776,10 @@
         <v>81.546050726224294</v>
       </c>
       <c r="R6" s="25">
-        <v>44.345664757404002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>44.4455922444536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -1832,10 +1832,10 @@
         <v>48.284036913641998</v>
       </c>
       <c r="R7" s="25">
-        <v>10.3727474306876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>10.3622362790511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -1888,10 +1888,10 @@
         <v>47.106201504009597</v>
       </c>
       <c r="R8" s="25">
-        <v>40.5940552908055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>39.8111704972711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
@@ -1944,10 +1944,10 @@
         <v>68.874149346267899</v>
       </c>
       <c r="R9" s="25">
-        <v>34.331492876482699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>33.957445076742701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
@@ -2000,10 +2000,10 @@
         <v>18.690403390080899</v>
       </c>
       <c r="R10" s="25">
-        <v>31.193814062404901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>31.111990655453798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
@@ -2056,10 +2056,10 @@
         <v>52.509074512616401</v>
       </c>
       <c r="R11" s="19">
-        <v>52.951540056276201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>52.950702242066598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
@@ -2112,10 +2112,10 @@
         <v>64.668637975236805</v>
       </c>
       <c r="R12" s="25">
-        <v>18.279911392911501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18.268420102739999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>39</v>
       </c>
@@ -2168,10 +2168,10 @@
         <v>29.494632420122599</v>
       </c>
       <c r="R13" s="32">
-        <v>34.5944064075684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+        <v>34.502451308764499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
@@ -2224,10 +2224,10 @@
         <v>43.8743853751213</v>
       </c>
       <c r="R14" s="25">
-        <v>8.1227926531516701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <v>8.12233191914566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -2280,10 +2280,10 @@
         <v>8.3869341080662707</v>
       </c>
       <c r="R15" s="25">
-        <v>16.4416262007732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+        <v>16.441806010866902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
@@ -2336,10 +2336,10 @@
         <v>14.6301275208651</v>
       </c>
       <c r="R16" s="25">
-        <v>13.688864979750299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>13.692146062069099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
@@ -2392,10 +2392,10 @@
         <v>12.8186545709417</v>
       </c>
       <c r="R17" s="38">
-        <v>34.529957898005001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+        <v>34.559806862069998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>49</v>
       </c>
@@ -2448,10 +2448,10 @@
         <v>13.5496259045507</v>
       </c>
       <c r="R18" s="38">
-        <v>72.891877155626503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+        <v>66.052201281445903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>51</v>
       </c>
@@ -2504,10 +2504,10 @@
         <v>42.896035098758198</v>
       </c>
       <c r="R19" s="19">
-        <v>39.553458604219401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+        <v>38.993071731061399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>53</v>
       </c>
@@ -2560,10 +2560,10 @@
         <v>3.2936189125051598</v>
       </c>
       <c r="R20" s="38">
-        <v>44.622731725259897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+        <v>44.624162319167297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>55</v>
       </c>
@@ -2616,10 +2616,10 @@
         <v>6.8068558956448602</v>
       </c>
       <c r="R21" s="38">
-        <v>39.862196110500797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>39.888258732818699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>57</v>
       </c>
@@ -2672,10 +2672,10 @@
         <v>7.9231874065141303</v>
       </c>
       <c r="R22" s="25">
-        <v>15.309847129227901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>15.3632638728612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>39</v>
       </c>
@@ -2728,10 +2728,10 @@
         <v>24.3461048726979</v>
       </c>
       <c r="R23" s="32">
-        <v>33.056170556374198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32.666933938057603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>60</v>
       </c>
@@ -2784,10 +2784,10 @@
         <v>7.95970011165769</v>
       </c>
       <c r="R24" s="25">
-        <v>11.516798569849399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+        <v>11.5195131831656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>62</v>
       </c>
@@ -2840,10 +2840,10 @@
         <v>10.9825897749086</v>
       </c>
       <c r="R25" s="25">
-        <v>149.939648857761</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+        <v>149.33312334600899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>64</v>
       </c>
@@ -2895,16 +2895,16 @@
       <c r="Q26" s="24">
         <v>7.0581962569624803</v>
       </c>
-      <c r="R26" s="25">
-        <v>38.753396744285503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R26" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="23">
         <v>12.4272623065315</v>
@@ -2952,15 +2952,15 @@
         <v>9.1723238404758405</v>
       </c>
       <c r="R27" s="25">
-        <v>8.5738254450976097</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+        <v>8.5738621328594995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="23">
         <v>37.647504522382299</v>
@@ -3008,15 +3008,15 @@
         <v>11.412967841714501</v>
       </c>
       <c r="R28" s="25">
-        <v>10.7162886540966</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+        <v>10.7623285479165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="23">
         <v>5.66569422991744</v>
@@ -3064,15 +3064,15 @@
         <v>13.598355093455501</v>
       </c>
       <c r="R29" s="25">
-        <v>23.032116454966602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+        <v>23.0317273620702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="23">
         <v>37.218608294808398</v>
@@ -3120,15 +3120,15 @@
         <v>17.563328877095699</v>
       </c>
       <c r="R30" s="25">
-        <v>27.8335084103309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+        <v>27.838981225178699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="23">
         <v>46.666423578771102</v>
@@ -3176,15 +3176,15 @@
         <v>41.649981720346702</v>
       </c>
       <c r="R31" s="25">
-        <v>19.064319772189801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+        <v>19.088529634091898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="23">
         <v>5.5039320630606303</v>
@@ -3232,15 +3232,15 @@
         <v>35.845770196478497</v>
       </c>
       <c r="R32" s="25">
-        <v>120.178646783612</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+        <v>116.66493004945001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="23">
         <v>1.7735845918792801</v>
@@ -3288,15 +3288,15 @@
         <v>3.9280656077167002</v>
       </c>
       <c r="R33" s="25">
-        <v>17.178050909260499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+        <v>13.3178343668908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="36">
         <v>0.19395321517472999</v>
@@ -3344,15 +3344,15 @@
         <v>30.1600578538619</v>
       </c>
       <c r="R34" s="38">
-        <v>71.500734394283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+        <v>71.501738670582995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="23">
         <v>4.1042443543464104</v>
@@ -3400,15 +3400,15 @@
         <v>13.1059487587617</v>
       </c>
       <c r="R35" s="25">
-        <v>17.0172856140736</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+        <v>16.993018195085298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="23">
         <v>31.464766350949301</v>
@@ -3456,15 +3456,15 @@
         <v>10.287241307379</v>
       </c>
       <c r="R36" s="25">
-        <v>14.1751950000597</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>14.175209086724699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="23">
         <v>13.4025676275304</v>
@@ -3512,15 +3512,15 @@
         <v>28.883543342501198</v>
       </c>
       <c r="R37" s="25">
-        <v>14.385308686659201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>14.4746086054706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="30">
         <v>21.537647011389598</v>
@@ -3568,15 +3568,15 @@
         <v>13.6615185075398</v>
       </c>
       <c r="R38" s="32">
-        <v>14.6283437020997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+        <v>14.441826690928799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="36">
         <v>4.0729436240322903</v>
@@ -3624,15 +3624,15 @@
         <v>2.5866675005912598</v>
       </c>
       <c r="R39" s="38">
-        <v>25.605455733878198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25.605436625959499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="23">
         <v>10.087791377330101</v>
@@ -3680,15 +3680,15 @@
         <v>1.81523250502978</v>
       </c>
       <c r="R40" s="25">
-        <v>10.5531691004687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+        <v>10.5531774155445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="36">
         <v>0.53138373152285001</v>
@@ -3736,10 +3736,10 @@
         <v>12.6219350297108</v>
       </c>
       <c r="R41" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>96</v>
       </c>
@@ -3792,10 +3792,10 @@
         <v>9.9102443718826301</v>
       </c>
       <c r="R42" s="38">
-        <v>33.2069791354443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+        <v>33.205487902222501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>98</v>
       </c>
@@ -3848,10 +3848,10 @@
         <v>4.21721288037521</v>
       </c>
       <c r="R43" s="25">
-        <v>32.985864623713397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>33.229757648561801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>100</v>
       </c>
@@ -3904,10 +3904,10 @@
         <v>6.67496069019891</v>
       </c>
       <c r="R44" s="25">
-        <v>42.439990494046803</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>42.4403651619307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>39</v>
       </c>
@@ -3960,10 +3960,10 @@
         <v>3.64776148594511</v>
       </c>
       <c r="R45" s="32">
-        <v>18.783189127890399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+        <v>18.816926072228799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>103</v>
       </c>
@@ -4016,10 +4016,10 @@
         <v>18.517930683628599</v>
       </c>
       <c r="R46" s="25">
-        <v>23.482995586326499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+        <v>23.4835027649777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>105</v>
       </c>
@@ -4072,10 +4072,10 @@
         <v>32.739994050468297</v>
       </c>
       <c r="R47" s="25">
-        <v>29.4574859455408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+        <v>29.457614399860699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>107</v>
       </c>
@@ -4128,10 +4128,10 @@
         <v>0.64310391098442998</v>
       </c>
       <c r="R48" s="38">
-        <v>28.9751184139811</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+        <v>29.639481175743299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>109</v>
       </c>
@@ -4184,10 +4184,10 @@
         <v>27.073032372817199</v>
       </c>
       <c r="R49" s="25">
-        <v>22.632864580266698</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22.589718820485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>111</v>
       </c>
@@ -4240,10 +4240,10 @@
         <v>13.3943689943672</v>
       </c>
       <c r="R50" s="25">
-        <v>9.1788319187919996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+        <v>9.1314405670974601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>113</v>
       </c>
@@ -4296,10 +4296,10 @@
         <v>6.5638819971950104</v>
       </c>
       <c r="R51" s="19">
-        <v>30.1948244523951</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+        <v>30.027140660352998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>115</v>
       </c>
@@ -4352,10 +4352,10 @@
         <v>6.9399687755793096</v>
       </c>
       <c r="R52" s="25">
-        <v>63.545103442808397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+        <v>64.805956810950704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>117</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>1.9853430723030101</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G53" s="24">
         <v>0.81314298336952995</v>
@@ -4408,10 +4408,10 @@
         <v>17.437893145191602</v>
       </c>
       <c r="R53" s="25">
-        <v>19.4231713892963</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+        <v>19.428377144420999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>119</v>
       </c>
@@ -4464,10 +4464,10 @@
         <v>2.20931665538872</v>
       </c>
       <c r="R54" s="25">
-        <v>32.0125450422886</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32.0112993234793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>121</v>
       </c>
@@ -4520,10 +4520,10 @@
         <v>30.942772299732599</v>
       </c>
       <c r="R55" s="25">
-        <v>27.3971836887204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+        <v>27.222714232390601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>123</v>
       </c>
@@ -4576,10 +4576,10 @@
         <v>38.428033169336302</v>
       </c>
       <c r="R56" s="25">
-        <v>15.496881969881301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+        <v>15.4966004375969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>125</v>
       </c>
@@ -4632,10 +4632,10 @@
         <v>3.4353166809928499</v>
       </c>
       <c r="R57" s="25">
-        <v>11.499661296247799</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+        <v>11.4996686864061</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>127</v>
       </c>
@@ -4688,10 +4688,10 @@
         <v>15.5926824092577</v>
       </c>
       <c r="R58" s="25">
-        <v>23.373588354331201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+        <v>23.420772400342599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -4744,10 +4744,10 @@
         <v>6.5198651786696198</v>
       </c>
       <c r="R59" s="25">
-        <v>26.864112802491</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>26.863274727982201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -4800,10 +4800,10 @@
         <v>19.3059155866951</v>
       </c>
       <c r="R60" s="19">
-        <v>22.5931424248264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>22.8434868611367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="28" t="s">
         <v>39</v>
       </c>
@@ -4856,10 +4856,10 @@
         <v>11.5094898237679</v>
       </c>
       <c r="R61" s="32">
-        <v>17.668744907026699</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17.674116448833999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="s">
         <v>39</v>
       </c>
@@ -4912,10 +4912,10 @@
         <v>13.310857995767901</v>
       </c>
       <c r="R62" s="46">
-        <v>21.428809165303299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21.380587503797599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="s">
         <v>39</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>21.037187179382101</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E63" s="51">
         <v>58.1485322829948</v>
@@ -4944,7 +4944,7 @@
         <v>21.620856930370401</v>
       </c>
       <c r="J63" s="51" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K63" s="51">
         <v>57.571442811179999</v>
@@ -4968,10 +4968,10 @@
         <v>59.073292810869297</v>
       </c>
       <c r="R63" s="52">
-        <v>29.074255902749801</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+        <v>29.0241195092248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="55" t="s">
         <v>39</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>7.9979380828384503</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E64" s="45">
         <v>45.319091546141102</v>
@@ -5000,7 +5000,7 @@
         <v>7.9224625217890603</v>
       </c>
       <c r="J64" s="45" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K64" s="45">
         <v>36.909299630432201</v>
@@ -5024,10 +5024,10 @@
         <v>39.644434245289702</v>
       </c>
       <c r="R64" s="46">
-        <v>27.112143836084599</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+        <v>26.8460489152917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
         <v>39</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>4.9780750823679103</v>
       </c>
       <c r="D65" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E65" s="58">
         <v>48.1907524084016</v>
@@ -5056,7 +5056,7 @@
         <v>6.6262712513260897</v>
       </c>
       <c r="J65" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K65" s="58">
         <v>61.240092704581699</v>
@@ -5080,10 +5080,10 @@
         <v>60.044177145777397</v>
       </c>
       <c r="R65" s="59">
-        <v>24.0965283884358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>24.090908250574699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
         <v>39</v>
       </c>
@@ -5136,10 +5136,10 @@
         <v>57.693960017807903</v>
       </c>
       <c r="R66" s="65">
-        <v>28.688994384145701</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+        <v>28.639168740902601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
         <v>39</v>
       </c>
@@ -5192,10 +5192,10 @@
         <v>12.0172276699048</v>
       </c>
       <c r="R67" s="71">
-        <v>15.827399720297199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+        <v>15.7247606941299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="55" t="s">
         <v>39</v>
       </c>
@@ -5248,10 +5248,10 @@
         <v>6.7895523005026197</v>
       </c>
       <c r="R68" s="59">
-        <v>17.5819635585536</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+        <v>17.539831637828499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="55" t="s">
         <v>39</v>
       </c>
@@ -5304,10 +5304,10 @@
         <v>20.220125742306699</v>
       </c>
       <c r="R69" s="59">
-        <v>17.506043086661101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+        <v>17.4506879069239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="55" t="s">
         <v>39</v>
       </c>
@@ -5360,10 +5360,10 @@
         <v>21.029309586230301</v>
       </c>
       <c r="R70" s="59">
-        <v>36.685339214373897</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+        <v>36.434648860728501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="55" t="s">
         <v>39</v>
       </c>
@@ -5416,10 +5416,10 @@
         <v>11.5094898237679</v>
       </c>
       <c r="R71" s="59">
-        <v>17.668744907026699</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+        <v>17.674116448833999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="55" t="s">
         <v>39</v>
       </c>
@@ -5472,10 +5472,10 @@
         <v>12.252283420156299</v>
       </c>
       <c r="R72" s="59">
-        <v>13.3876320778232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+        <v>13.1362761632726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="55" t="s">
         <v>39</v>
       </c>
@@ -5528,10 +5528,10 @@
         <v>28.032443849068201</v>
       </c>
       <c r="R73" s="59">
-        <v>32.443122353982901</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32.338526904563103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="55" t="s">
         <v>39</v>
       </c>
@@ -5584,10 +5584,10 @@
         <v>5.0264473101340803</v>
       </c>
       <c r="R74" s="59">
-        <v>30.495426343310001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>30.575382782963299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="55" t="s">
         <v>39</v>
       </c>
@@ -5640,10 +5640,10 @@
         <v>31.037627286067401</v>
       </c>
       <c r="R75" s="65">
-        <v>43.522693584562703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+        <v>43.3975442533836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="55" t="s">
         <v>39</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>20.8861079127885</v>
       </c>
       <c r="D76" s="70" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E76" s="70">
         <v>63.379344055461502</v>
@@ -5672,7 +5672,7 @@
         <v>22.502055289296301</v>
       </c>
       <c r="J76" s="70" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K76" s="70">
         <v>78.003629603854094</v>
@@ -5696,10 +5696,10 @@
         <v>76.838323333691605</v>
       </c>
       <c r="R76" s="71">
-        <v>52.997166297673402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+        <v>52.985083071879501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="55" t="s">
         <v>39</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>15.251633705456999</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E77" s="58">
         <v>15.5371999710931</v>
@@ -5728,7 +5728,7 @@
         <v>17.309914373468899</v>
       </c>
       <c r="J77" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K77" s="58">
         <v>17.362747222699799</v>
@@ -5752,10 +5752,10 @@
         <v>18.8814698514933</v>
       </c>
       <c r="R77" s="59">
-        <v>21.242089332629401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+        <v>21.219838907156699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="55" t="s">
         <v>39</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>59.748917263364</v>
       </c>
       <c r="D78" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E78" s="58">
         <v>73.592126344897395</v>
@@ -5784,7 +5784,7 @@
         <v>59.515871372457703</v>
       </c>
       <c r="J78" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K78" s="58">
         <v>72.879718696677699</v>
@@ -5808,10 +5808,10 @@
         <v>73.743347180598704</v>
       </c>
       <c r="R78" s="59">
-        <v>50.405171963548</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>50.201959459432601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="55" t="s">
         <v>39</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>30.5365657733721</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E79" s="64">
         <v>62.046074780157298</v>
@@ -5840,7 +5840,7 @@
         <v>27.899202909512301</v>
       </c>
       <c r="J79" s="64" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K79" s="64">
         <v>56.900783115719904</v>
@@ -5864,10 +5864,10 @@
         <v>59.600281051765897</v>
       </c>
       <c r="R79" s="65">
-        <v>30.026167846821199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+        <v>29.930302691805601</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
         <v>39</v>
       </c>
@@ -5920,10 +5920,10 @@
         <v>5.8215020055834703</v>
       </c>
       <c r="R80" s="71">
-        <v>33.526005766710099</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+        <v>33.437073793099799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="55" t="s">
         <v>39</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>0.49071718579849</v>
       </c>
       <c r="D81" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E81" s="58">
         <v>67.1113484181448</v>
@@ -5952,7 +5952,7 @@
         <v>0.75368125841644995</v>
       </c>
       <c r="J81" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K81" s="58">
         <v>54.130922237000298</v>
@@ -5976,10 +5976,10 @@
         <v>50.201687345473303</v>
       </c>
       <c r="R81" s="59">
-        <v>37.656844581745602</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+        <v>37.650932556709002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="55" t="s">
         <v>39</v>
       </c>
@@ -6032,10 +6032,10 @@
         <v>14.2523078978268</v>
       </c>
       <c r="R82" s="59">
-        <v>19.7320523288654</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>19.6853192705649</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="55" t="s">
         <v>39</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>22.756496234479201</v>
       </c>
       <c r="D83" s="64" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E83" s="64">
         <v>57.398532358669797</v>
@@ -6064,7 +6064,7 @@
         <v>22.822679995428501</v>
       </c>
       <c r="J83" s="64" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K83" s="64">
         <v>57.769595979910697</v>
@@ -6088,10 +6088,10 @@
         <v>59.483918542703996</v>
       </c>
       <c r="R83" s="65">
-        <v>28.295846675813898</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+        <v>28.2433343612032</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
         <v>39</v>
       </c>
@@ -6144,10 +6144,10 @@
         <v>28.0395964852129</v>
       </c>
       <c r="R84" s="71">
-        <v>22.9083781831132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22.672854361169701</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="55" t="s">
         <v>39</v>
       </c>
@@ -6155,10 +6155,10 @@
         <v>157</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D85" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E85" s="58">
         <v>80.429040881961797</v>
@@ -6173,10 +6173,10 @@
         <v>0.78703965450811997</v>
       </c>
       <c r="I85" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="J85" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K85" s="58">
         <v>65.967353711468107</v>
@@ -6200,10 +6200,10 @@
         <v>60.405341136752298</v>
       </c>
       <c r="R85" s="59">
-        <v>12.080169759101199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+        <v>10.6337358712987</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="55" t="s">
         <v>39</v>
       </c>
@@ -6256,10 +6256,10 @@
         <v>7.3289210480852702</v>
       </c>
       <c r="R86" s="59">
-        <v>18.7669602699739</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+        <v>18.764616357292901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
         <v>39</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>8.1301786224704902</v>
       </c>
       <c r="D87" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E87" s="58">
         <v>50.713429561814998</v>
@@ -6288,7 +6288,7 @@
         <v>9.7868241672774907</v>
       </c>
       <c r="J87" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K87" s="58">
         <v>71.426502328620401</v>
@@ -6312,10 +6312,10 @@
         <v>69.593032210791506</v>
       </c>
       <c r="R87" s="59">
-        <v>25.2110602250767</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25.209937138664401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="55" t="s">
         <v>39</v>
       </c>
@@ -6368,10 +6368,10 @@
         <v>21.956296074543602</v>
       </c>
       <c r="R88" s="59">
-        <v>32.2537412319464</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32.185209258026298</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
         <v>39</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>4.3625122931659499</v>
       </c>
       <c r="D89" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E89" s="58">
         <v>49.997233388442197</v>
@@ -6400,7 +6400,7 @@
         <v>4.88256346619188</v>
       </c>
       <c r="J89" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K89" s="58">
         <v>51.7714689194515</v>
@@ -6424,10 +6424,10 @@
         <v>52.437459478439898</v>
       </c>
       <c r="R89" s="59">
-        <v>26.250108762484999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>26.197198144810798</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="55" t="s">
         <v>39</v>
       </c>
@@ -6480,10 +6480,10 @@
         <v>60.045707873632502</v>
       </c>
       <c r="R90" s="65">
-        <v>32.487236691912202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32.422092984809197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="55" t="s">
         <v>39</v>
       </c>
@@ -6536,10 +6536,10 @@
         <v>22.882304979916398</v>
       </c>
       <c r="R91" s="71">
-        <v>25.363513289198099</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25.195366261229101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
         <v>39</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>11.749555738563901</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E92" s="58">
         <v>38.701493432052899</v>
@@ -6568,7 +6568,7 @@
         <v>20.6774432361252</v>
       </c>
       <c r="J92" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K92" s="58">
         <v>84.525926805207106</v>
@@ -6592,10 +6592,10 @@
         <v>83.5495388951514</v>
       </c>
       <c r="R92" s="59">
-        <v>15.369241775483101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+        <v>15.3101750673393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
         <v>39</v>
       </c>
@@ -6648,10 +6648,10 @@
         <v>17.792565686839801</v>
       </c>
       <c r="R93" s="59">
-        <v>32.089359681950697</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32.281796600955701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
         <v>39</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>22.383827657065201</v>
       </c>
       <c r="D94" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E94" s="58">
         <v>69.865792647512905</v>
@@ -6680,7 +6680,7 @@
         <v>18.720985010699302</v>
       </c>
       <c r="J94" s="58" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K94" s="58">
         <v>62.392903299207198</v>
@@ -6704,10 +6704,10 @@
         <v>65.020539079316407</v>
       </c>
       <c r="R94" s="59">
-        <v>119.542274839231</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+        <v>119.611789619783</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="55" t="s">
         <v>39</v>
       </c>
@@ -6760,10 +6760,10 @@
         <v>40.532807021194202</v>
       </c>
       <c r="R95" s="59">
-        <v>20.347630778781198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20.3560475644985</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="55" t="s">
         <v>39</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>10.101432542168199</v>
       </c>
       <c r="D96" s="64" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E96" s="64">
         <v>65.202630765340103</v>
@@ -6792,7 +6792,7 @@
         <v>7.2657648919412701</v>
       </c>
       <c r="J96" s="64" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K96" s="64">
         <v>61.864396301842298</v>
@@ -6816,10 +6816,10 @@
         <v>65.253243263579407</v>
       </c>
       <c r="R96" s="65">
-        <v>31.3023002992424</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+        <v>31.229914599945701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="55" t="s">
         <v>39</v>
       </c>
@@ -6872,10 +6872,10 @@
         <v>18.296873994183098</v>
       </c>
       <c r="R97" s="71">
-        <v>18.5436913281488</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18.551904407748001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="55" t="s">
         <v>39</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>6.5883938736442298</v>
       </c>
       <c r="D98" s="64" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E98" s="64">
         <v>42.999359961668297</v>
@@ -6904,7 +6904,7 @@
         <v>11.9716161625933</v>
       </c>
       <c r="J98" s="64" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K98" s="64">
         <v>74.102027717615599</v>
@@ -6928,10 +6928,10 @@
         <v>73.697749864480002</v>
       </c>
       <c r="R98" s="65">
-        <v>19.255816473796202</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+        <v>19.257656382611401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="48"/>
@@ -6951,7 +6951,7 @@
       <c r="Q99" s="48"/>
       <c r="R99" s="48"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>171</v>
       </c>
@@ -6972,7 +6972,7 @@
       <c r="Q100" s="76"/>
       <c r="R100" s="76"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>172</v>
       </c>
@@ -6993,7 +6993,7 @@
       <c r="Q101" s="76"/>
       <c r="R101" s="76"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>173</v>
       </c>
@@ -7014,7 +7014,7 @@
       <c r="Q102" s="76"/>
       <c r="R102" s="76"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>174</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="Q103" s="76"/>
       <c r="R103" s="76"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>175</v>
       </c>
@@ -7056,7 +7056,7 @@
       <c r="Q104" s="76"/>
       <c r="R104" s="76"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -7074,7 +7074,7 @@
       <c r="Q105" s="76"/>
       <c r="R105" s="76"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
       <c r="E106" s="76"/>
@@ -7092,7 +7092,7 @@
       <c r="Q106" s="76"/>
       <c r="R106" s="76"/>
     </row>
-    <row r="107" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="77" t="s">
         <v>176</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="Q107" s="76"/>
       <c r="R107" s="76"/>
     </row>
-    <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="77"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -7132,7 +7132,7 @@
       <c r="Q108" s="76"/>
       <c r="R108" s="76"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>179</v>
       </c>
@@ -7153,7 +7153,7 @@
       <c r="Q109" s="76"/>
       <c r="R109" s="76"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>180</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="Q110" s="76"/>
       <c r="R110" s="76"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>181</v>
       </c>
@@ -7195,7 +7195,7 @@
       <c r="Q111" s="76"/>
       <c r="R111" s="76"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>177</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="Q112" s="76"/>
       <c r="R112" s="76"/>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>178</v>
       </c>
@@ -7237,7 +7237,7 @@
       <c r="Q113" s="76"/>
       <c r="R113" s="76"/>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="76"/>
       <c r="D114" s="76"/>
@@ -7258,12 +7258,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EEE3AE51-2632-4830-9C5C-6D517341AC83}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F56230E4-EF01-4B75-BE6B-F16F7BBCEB46}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{7B4989D4-8217-4CB3-927F-7C62C1DCCE58}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{CDF43B40-DF77-4C6B-9821-00EB88DB9E3E}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{9F50B23A-AA22-46DB-8844-F2EDF4F0C5E7}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{3780692E-A95B-4F24-8E83-157B5A404BB8}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E9888534-C5DC-44A5-9A28-ECE0755477BE}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B0EA4ADF-DEF5-4FB9-952B-4B260BD9B634}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{7D4C30BE-380B-416D-9914-0B32C8CB47AA}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{97BE0301-9340-4656-A0DC-19C74DB39DF8}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{8B4673C3-881F-40FE-9137-039C9C38E0A9}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{F69E35C5-C9BD-413B-A867-0507EAEF8DB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId7"/>
